--- a/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Up_and_down/Binance_ETH-USDT_1d/trades.xlsx
+++ b/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Up_and_down/Binance_ETH-USDT_1d/trades.xlsx
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J144"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,1119 +446,1119 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>38638</v>
+        <v>34048</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D2">
-        <v>0.01282381145935505</v>
+        <v>0.01455954515840858</v>
       </c>
       <c r="E2">
-        <v>0.01653855591895573</v>
+        <v>0.02273522166080096</v>
       </c>
       <c r="F2">
-        <v>143.5302964300508</v>
+        <v>278.3654335534556</v>
       </c>
       <c r="G2">
-        <v>0.2896755361207952</v>
+        <v>0.5615337851176398</v>
       </c>
       <c r="H2" s="2">
-        <v>43828</v>
+        <v>43804</v>
       </c>
       <c r="I2" s="2">
-        <v>43902</v>
+        <v>43887</v>
       </c>
       <c r="J2" s="3">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>39195</v>
+        <v>33634</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D3">
-        <v>0.01264062822982669</v>
+        <v>0.0147337190862745</v>
       </c>
       <c r="E3">
-        <v>0.01653855591895573</v>
+        <v>0.02273522166080096</v>
       </c>
       <c r="F3">
-        <v>152.7792757754127</v>
+        <v>269.1225375916227</v>
       </c>
       <c r="G3">
-        <v>0.3083650288781954</v>
+        <v>0.543074191090043</v>
       </c>
       <c r="H3" s="2">
-        <v>43827</v>
+        <v>43803</v>
       </c>
       <c r="I3" s="2">
-        <v>43902</v>
+        <v>43887</v>
       </c>
       <c r="J3" s="3">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>39417</v>
+        <v>36418</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="C4">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="D4">
-        <v>0.01257055816240609</v>
+        <v>0.01360258932970464</v>
       </c>
       <c r="E4">
-        <v>0.01653855591895573</v>
+        <v>0.01852746750434317</v>
       </c>
       <c r="F4">
-        <v>156.4065675699172</v>
+        <v>179.354213363986</v>
       </c>
       <c r="G4">
-        <v>0.3156580404215035</v>
+        <v>0.3620544629605065</v>
       </c>
       <c r="H4" s="2">
-        <v>43826</v>
+        <v>43914</v>
       </c>
       <c r="I4" s="2">
-        <v>43902</v>
+        <v>43961</v>
       </c>
       <c r="J4" s="3">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>41910</v>
+        <v>23563</v>
       </c>
       <c r="B5">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="C5">
-        <v>325</v>
+        <v>232</v>
       </c>
       <c r="D5">
-        <v>0.01182281129527837</v>
+        <v>0.02103000901825726</v>
       </c>
       <c r="E5">
-        <v>0.03401200975968628</v>
+        <v>0.02265659096543989</v>
       </c>
       <c r="F5">
-        <v>929.9493076433357</v>
+        <v>38.3271504214643</v>
       </c>
       <c r="G5">
-        <v>1.876812368076071</v>
+        <v>0.07734575604653848</v>
       </c>
       <c r="H5" s="2">
-        <v>43909</v>
+        <v>43961</v>
       </c>
       <c r="I5" s="2">
-        <v>44095</v>
+        <v>44002</v>
       </c>
       <c r="J5" s="3">
-        <v>186</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>42794</v>
+        <v>24820</v>
       </c>
       <c r="B6">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C6">
-        <v>325</v>
+        <v>232</v>
       </c>
       <c r="D6">
-        <v>0.01157856636773795</v>
+        <v>0.01996294188499451</v>
       </c>
       <c r="E6">
-        <v>0.03401200975968628</v>
+        <v>0.02265659096543989</v>
       </c>
       <c r="F6">
-        <v>960.0167765150369</v>
+        <v>66.85637017665439</v>
       </c>
       <c r="G6">
-        <v>1.93749750007531</v>
+        <v>0.1349324711740063</v>
       </c>
       <c r="H6" s="2">
-        <v>43908</v>
+        <v>43899</v>
       </c>
       <c r="I6" s="2">
-        <v>44095</v>
+        <v>44002</v>
       </c>
       <c r="J6" s="3">
-        <v>187</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>39990</v>
+        <v>21101</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="C7">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="D7">
-        <v>0.012394381753169</v>
+        <v>0.02348045703209936</v>
       </c>
       <c r="E7">
-        <v>0.03401200975968628</v>
+        <v>0.03886375073619076</v>
       </c>
       <c r="F7">
-        <v>864.4889439806261</v>
+        <v>324.6028804500326</v>
       </c>
       <c r="G7">
-        <v>1.744147343290445</v>
+        <v>0.6551530782838426</v>
       </c>
       <c r="H7" s="2">
-        <v>43906</v>
+        <v>44007</v>
       </c>
       <c r="I7" s="2">
-        <v>44095</v>
+        <v>44064</v>
       </c>
       <c r="J7" s="3">
-        <v>189</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>36923</v>
+        <v>20358</v>
       </c>
       <c r="B8">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="C8">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="D8">
-        <v>0.01341940610017627</v>
+        <v>0.02433931457996368</v>
       </c>
       <c r="E8">
-        <v>0.03401200975968628</v>
+        <v>0.03886375073619076</v>
       </c>
       <c r="F8">
-        <v>760.3407049200881</v>
+        <v>295.6884712684709</v>
       </c>
       <c r="G8">
-        <v>1.534539122356504</v>
+        <v>0.5967479531319142</v>
       </c>
       <c r="H8" s="2">
-        <v>43904</v>
+        <v>44006</v>
       </c>
       <c r="I8" s="2">
-        <v>44095</v>
+        <v>44064</v>
       </c>
       <c r="J8" s="3">
-        <v>191</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>14491</v>
+        <v>20865</v>
       </c>
       <c r="B9">
-        <v>342</v>
+        <v>128</v>
       </c>
       <c r="C9">
-        <v>565</v>
+        <v>294</v>
       </c>
       <c r="D9">
-        <v>0.03419215685874223</v>
+        <v>0.02374672179669142</v>
       </c>
       <c r="E9">
-        <v>0.2066533236224633</v>
+        <v>0.03886375073619076</v>
       </c>
       <c r="F9">
-        <v>2499.134767573082</v>
+        <v>315.4168088226539</v>
       </c>
       <c r="G9">
-        <v>5.043880895733148</v>
+        <v>0.6365943505349683</v>
       </c>
       <c r="H9" s="2">
-        <v>44112</v>
+        <v>43898</v>
       </c>
       <c r="I9" s="2">
-        <v>44335</v>
+        <v>44064</v>
       </c>
       <c r="J9" s="3">
-        <v>223</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>13998</v>
+        <v>10412</v>
       </c>
       <c r="B10">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="C10">
-        <v>565</v>
+        <v>418</v>
       </c>
       <c r="D10">
-        <v>0.03539836288616061</v>
+        <v>0.04758753784373402</v>
       </c>
       <c r="E10">
-        <v>0.2066533236224633</v>
+        <v>0.05721478416033795</v>
       </c>
       <c r="F10">
-        <v>2397.226940386765</v>
+        <v>100.2388886484801</v>
       </c>
       <c r="G10">
-        <v>4.837934491124638</v>
+        <v>0.2023060396235981</v>
       </c>
       <c r="H10" s="2">
-        <v>44110</v>
+        <v>44076</v>
       </c>
       <c r="I10" s="2">
-        <v>44335</v>
+        <v>44188</v>
       </c>
       <c r="J10" s="3">
-        <v>225</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>14047</v>
+        <v>11411</v>
       </c>
       <c r="B11">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="C11">
-        <v>565</v>
+        <v>418</v>
       </c>
       <c r="D11">
-        <v>0.03526923453435302</v>
+        <v>0.04342337969690561</v>
       </c>
       <c r="E11">
-        <v>0.2066533236224633</v>
+        <v>0.05721478416033795</v>
       </c>
       <c r="F11">
-        <v>2407.432299420685</v>
+        <v>157.3737163322265</v>
       </c>
       <c r="G11">
-        <v>4.859308441218887</v>
+        <v>0.3176032026916396</v>
       </c>
       <c r="H11" s="2">
-        <v>44109</v>
+        <v>44075</v>
       </c>
       <c r="I11" s="2">
-        <v>44335</v>
+        <v>44188</v>
       </c>
       <c r="J11" s="3">
-        <v>226</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>14308</v>
+        <v>11540</v>
       </c>
       <c r="B12">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="C12">
-        <v>565</v>
+        <v>418</v>
       </c>
       <c r="D12">
-        <v>0.03462859338521957</v>
+        <v>0.04293689605221152</v>
       </c>
       <c r="E12">
-        <v>0.2066533236224633</v>
+        <v>0.05721478416033795</v>
       </c>
       <c r="F12">
-        <v>2461.329840234484</v>
+        <v>164.7668287677791</v>
       </c>
       <c r="G12">
-        <v>4.967707706853279</v>
+        <v>0.3325319112672802</v>
       </c>
       <c r="H12" s="2">
-        <v>44108</v>
+        <v>44074</v>
       </c>
       <c r="I12" s="2">
-        <v>44335</v>
+        <v>44188</v>
       </c>
       <c r="J12" s="3">
-        <v>227</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>13756</v>
+        <v>12758</v>
       </c>
       <c r="B13">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="C13">
-        <v>565</v>
+        <v>418</v>
       </c>
       <c r="D13">
-        <v>0.03601898295059799</v>
+        <v>0.03883179059624672</v>
       </c>
       <c r="E13">
-        <v>0.2066533236224633</v>
+        <v>0.05721478416033795</v>
       </c>
       <c r="F13">
-        <v>2347.245990282179</v>
+        <v>234.5302318906759</v>
       </c>
       <c r="G13">
-        <v>4.737344774723363</v>
+        <v>0.473400615367658</v>
       </c>
       <c r="H13" s="2">
-        <v>44105</v>
+        <v>44065</v>
       </c>
       <c r="I13" s="2">
-        <v>44335</v>
+        <v>44188</v>
       </c>
       <c r="J13" s="3">
-        <v>230</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>13758</v>
+        <v>11900</v>
       </c>
       <c r="B14">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="C14">
-        <v>565</v>
+        <v>418</v>
       </c>
       <c r="D14">
-        <v>0.03601397861167788</v>
+        <v>0.04163559266924858</v>
       </c>
       <c r="E14">
-        <v>0.2066533236224633</v>
+        <v>0.05721478416033795</v>
       </c>
       <c r="F14">
-        <v>2347.656108658386</v>
+        <v>185.3923787439635</v>
       </c>
       <c r="G14">
-        <v>4.738142010098655</v>
+        <v>0.3741796499655912</v>
       </c>
       <c r="H14" s="2">
-        <v>44104</v>
+        <v>44064</v>
       </c>
       <c r="I14" s="2">
-        <v>44335</v>
+        <v>44188</v>
       </c>
       <c r="J14" s="3">
-        <v>231</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>13846</v>
+        <v>6580</v>
       </c>
       <c r="B15">
-        <v>332</v>
+        <v>426</v>
       </c>
       <c r="C15">
-        <v>565</v>
+        <v>479</v>
       </c>
       <c r="D15">
-        <v>0.03579375786706805</v>
+        <v>0.07529221814125775</v>
       </c>
       <c r="E15">
-        <v>0.2066533236224633</v>
+        <v>0.1665076550472352</v>
       </c>
       <c r="F15">
-        <v>2365.721547449202</v>
+        <v>600.1975748413316</v>
       </c>
       <c r="G15">
-        <v>4.773445872599874</v>
+        <v>1.211485584537378</v>
       </c>
       <c r="H15" s="2">
-        <v>44102</v>
+        <v>44196</v>
       </c>
       <c r="I15" s="2">
-        <v>44335</v>
+        <v>44249</v>
       </c>
       <c r="J15" s="3">
-        <v>233</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>13986</v>
+        <v>6762</v>
       </c>
       <c r="B16">
-        <v>331</v>
+        <v>425</v>
       </c>
       <c r="C16">
-        <v>565</v>
+        <v>479</v>
       </c>
       <c r="D16">
-        <v>0.03543039513006806</v>
+        <v>0.07327320231497286</v>
       </c>
       <c r="E16">
-        <v>0.2066533236224633</v>
+        <v>0.1665076550472352</v>
       </c>
       <c r="F16">
-        <v>2394.72387789464</v>
+        <v>630.4513693755579</v>
       </c>
       <c r="G16">
-        <v>4.832656476559773</v>
+        <v>1.272422246969415</v>
       </c>
       <c r="H16" s="2">
-        <v>44101</v>
+        <v>44195</v>
       </c>
       <c r="I16" s="2">
-        <v>44335</v>
+        <v>44249</v>
       </c>
       <c r="J16" s="3">
-        <v>234</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>14065</v>
+        <v>6777</v>
       </c>
       <c r="B17">
-        <v>330</v>
+        <v>424</v>
       </c>
       <c r="C17">
-        <v>565</v>
+        <v>479</v>
       </c>
       <c r="D17">
-        <v>0.03522819298878312</v>
+        <v>0.07311304109543561</v>
       </c>
       <c r="E17">
-        <v>0.2066533236224633</v>
+        <v>0.1665076550472352</v>
       </c>
       <c r="F17">
-        <v>2411.094462362712</v>
+        <v>632.9352987513458</v>
       </c>
       <c r="G17">
-        <v>4.866134652102736</v>
+        <v>1.277400208669889</v>
       </c>
       <c r="H17" s="2">
-        <v>44100</v>
+        <v>44194</v>
       </c>
       <c r="I17" s="2">
-        <v>44335</v>
+        <v>44249</v>
       </c>
       <c r="J17" s="3">
-        <v>235</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>14184</v>
+        <v>7897</v>
       </c>
       <c r="B18">
-        <v>329</v>
+        <v>421</v>
       </c>
       <c r="C18">
-        <v>565</v>
+        <v>479</v>
       </c>
       <c r="D18">
-        <v>0.03493189659714698</v>
+        <v>0.06274067982286215</v>
       </c>
       <c r="E18">
-        <v>0.2066533236224633</v>
+        <v>0.1665076550472352</v>
       </c>
       <c r="F18">
-        <v>2435.696720927087</v>
+        <v>819.4478033468739</v>
       </c>
       <c r="G18">
-        <v>4.915891885450659</v>
+        <v>1.65390262772641</v>
       </c>
       <c r="H18" s="2">
-        <v>44099</v>
+        <v>44191</v>
       </c>
       <c r="I18" s="2">
-        <v>44335</v>
+        <v>44249</v>
       </c>
       <c r="J18" s="3">
-        <v>236</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>14380</v>
+        <v>8084</v>
       </c>
       <c r="B19">
-        <v>327</v>
+        <v>420</v>
       </c>
       <c r="C19">
-        <v>565</v>
+        <v>479</v>
       </c>
       <c r="D19">
-        <v>0.03445241604372858</v>
+        <v>0.06129222948476672</v>
       </c>
       <c r="E19">
-        <v>0.2066533236224633</v>
+        <v>0.1665076550472352</v>
       </c>
       <c r="F19">
-        <v>2476.249050982205</v>
+        <v>850.5615002469951</v>
       </c>
       <c r="G19">
-        <v>4.998224431057881</v>
+        <v>1.716619324291642</v>
       </c>
       <c r="H19" s="2">
-        <v>44097</v>
+        <v>44190</v>
       </c>
       <c r="I19" s="2">
-        <v>44335</v>
+        <v>44249</v>
       </c>
       <c r="J19" s="3">
-        <v>238</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>1898</v>
+        <v>8453</v>
       </c>
       <c r="B20">
-        <v>641</v>
+        <v>419</v>
       </c>
       <c r="C20">
-        <v>690</v>
+        <v>479</v>
       </c>
       <c r="D20">
-        <v>0.2609526923894882</v>
+        <v>0.05860654770955442</v>
       </c>
       <c r="E20">
-        <v>0.2764792999930116</v>
+        <v>0.1665076550472352</v>
       </c>
       <c r="F20">
-        <v>29.46950123148746</v>
+        <v>912.0880603254155</v>
       </c>
       <c r="G20">
-        <v>0.05949970265242177</v>
+        <v>1.841110107225954</v>
       </c>
       <c r="H20" s="2">
-        <v>44411</v>
+        <v>44189</v>
       </c>
       <c r="I20" s="2">
-        <v>44460</v>
+        <v>44249</v>
       </c>
       <c r="J20" s="3">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>1936</v>
+        <v>7777</v>
       </c>
       <c r="B21">
-        <v>640</v>
+        <v>418</v>
       </c>
       <c r="C21">
-        <v>690</v>
+        <v>479</v>
       </c>
       <c r="D21">
-        <v>0.2558055470883846</v>
+        <v>0.06370463781058787</v>
       </c>
       <c r="E21">
-        <v>0.2764792999930116</v>
+        <v>0.1665076550472352</v>
       </c>
       <c r="F21">
-        <v>40.02438562335793</v>
+        <v>799.4990650494062</v>
       </c>
       <c r="G21">
-        <v>0.08081823533515453</v>
+        <v>1.613744631000182</v>
       </c>
       <c r="H21" s="2">
-        <v>44410</v>
+        <v>44188</v>
       </c>
       <c r="I21" s="2">
-        <v>44460</v>
+        <v>44249</v>
       </c>
       <c r="J21" s="3">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>1955</v>
+        <v>2578</v>
       </c>
       <c r="B22">
-        <v>639</v>
+        <v>517</v>
       </c>
       <c r="C22">
-        <v>690</v>
+        <v>565</v>
       </c>
       <c r="D22">
-        <v>0.2533631313741207</v>
+        <v>0.1921289365589618</v>
       </c>
       <c r="E22">
-        <v>0.2764792999930116</v>
+        <v>0.2934960222246346</v>
       </c>
       <c r="F22">
-        <v>45.19210964993177</v>
+        <v>261.3243468461042</v>
       </c>
       <c r="G22">
-        <v>0.0912373023396098</v>
+        <v>0.527599264749818</v>
       </c>
       <c r="H22" s="2">
-        <v>44409</v>
+        <v>44287</v>
       </c>
       <c r="I22" s="2">
-        <v>44460</v>
+        <v>44335</v>
       </c>
       <c r="J22" s="3">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>2010</v>
+        <v>2689</v>
       </c>
       <c r="B23">
-        <v>638</v>
+        <v>516</v>
       </c>
       <c r="C23">
-        <v>690</v>
+        <v>565</v>
       </c>
       <c r="D23">
-        <v>0.2464231797903776</v>
+        <v>0.1842250493615865</v>
       </c>
       <c r="E23">
-        <v>0.2764792999930116</v>
+        <v>0.2934960222246346</v>
       </c>
       <c r="F23">
-        <v>60.41280160729442</v>
+        <v>293.8296460287361</v>
       </c>
       <c r="G23">
-        <v>0.1219695331754163</v>
+        <v>0.5931385185766844</v>
       </c>
       <c r="H23" s="2">
-        <v>44408</v>
+        <v>44286</v>
       </c>
       <c r="I23" s="2">
-        <v>44460</v>
+        <v>44335</v>
       </c>
       <c r="J23" s="3">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>2077</v>
+        <v>2787</v>
       </c>
       <c r="B24">
-        <v>637</v>
+        <v>504</v>
       </c>
       <c r="C24">
-        <v>690</v>
+        <v>565</v>
       </c>
       <c r="D24">
-        <v>0.2385312851071358</v>
+        <v>0.1777696013152599</v>
       </c>
       <c r="E24">
-        <v>0.2764792999930116</v>
+        <v>0.2934960222246346</v>
       </c>
       <c r="F24">
-        <v>78.81802691796419</v>
+        <v>322.5295350744271</v>
       </c>
       <c r="G24">
-        <v>0.159090304941893</v>
+        <v>0.650991058387667</v>
       </c>
       <c r="H24" s="2">
-        <v>44407</v>
+        <v>44274</v>
       </c>
       <c r="I24" s="2">
-        <v>44460</v>
+        <v>44335</v>
       </c>
       <c r="J24" s="3">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>2151</v>
+        <v>2714</v>
       </c>
       <c r="B25">
-        <v>636</v>
+        <v>503</v>
       </c>
       <c r="C25">
-        <v>690</v>
+        <v>565</v>
       </c>
       <c r="D25">
-        <v>0.2303200822770595</v>
+        <v>0.1825403546988964</v>
       </c>
       <c r="E25">
-        <v>0.2764792999930116</v>
+        <v>0.2934960222246346</v>
       </c>
       <c r="F25">
-        <v>99.28847730701298</v>
+        <v>301.1336816648533</v>
       </c>
       <c r="G25">
-        <v>0.2004133432899076</v>
+        <v>0.607841853428857</v>
       </c>
       <c r="H25" s="2">
-        <v>44406</v>
+        <v>44273</v>
       </c>
       <c r="I25" s="2">
-        <v>44460</v>
+        <v>44335</v>
       </c>
       <c r="J25" s="3">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>2152</v>
+        <v>2742</v>
       </c>
       <c r="B26">
-        <v>635</v>
+        <v>502</v>
       </c>
       <c r="C26">
-        <v>690</v>
+        <v>565</v>
       </c>
       <c r="D26">
-        <v>0.2301769477427006</v>
+        <v>0.1806815000921488</v>
       </c>
       <c r="E26">
-        <v>0.2764792999930116</v>
+        <v>0.2934960222246346</v>
       </c>
       <c r="F26">
-        <v>99.64266204266941</v>
+        <v>309.3374196872761</v>
       </c>
       <c r="G26">
-        <v>0.201159815109154</v>
+        <v>0.6243833600836259</v>
       </c>
       <c r="H26" s="2">
-        <v>44405</v>
+        <v>44272</v>
       </c>
       <c r="I26" s="2">
-        <v>44460</v>
+        <v>44335</v>
       </c>
       <c r="J26" s="3">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>2221</v>
+        <v>2759</v>
       </c>
       <c r="B27">
-        <v>634</v>
+        <v>501</v>
       </c>
       <c r="C27">
-        <v>690</v>
+        <v>565</v>
       </c>
       <c r="D27">
-        <v>0.2230037835240364</v>
+        <v>0.179578397616744</v>
       </c>
       <c r="E27">
-        <v>0.2764792999930116</v>
+        <v>0.2934960222246346</v>
       </c>
       <c r="F27">
-        <v>118.769122077594</v>
+        <v>314.29872629317</v>
       </c>
       <c r="G27">
-        <v>0.2397964537817423</v>
+        <v>0.634361516305616</v>
       </c>
       <c r="H27" s="2">
-        <v>44404</v>
+        <v>44271</v>
       </c>
       <c r="I27" s="2">
-        <v>44460</v>
+        <v>44335</v>
       </c>
       <c r="J27" s="3">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>2260</v>
+        <v>2678</v>
       </c>
       <c r="B28">
-        <v>633</v>
+        <v>500</v>
       </c>
       <c r="C28">
-        <v>690</v>
+        <v>565</v>
       </c>
       <c r="D28">
-        <v>0.219200993090868</v>
+        <v>0.1849948076754808</v>
       </c>
       <c r="E28">
-        <v>0.2764792999930116</v>
+        <v>0.2934960222246346</v>
       </c>
       <c r="F28">
-        <v>129.4489735988447</v>
+        <v>290.5662525626337</v>
       </c>
       <c r="G28">
-        <v>0.2613049607781632</v>
+        <v>0.5865095129561004</v>
       </c>
       <c r="H28" s="2">
-        <v>44403</v>
+        <v>44270</v>
       </c>
       <c r="I28" s="2">
-        <v>44460</v>
+        <v>44335</v>
       </c>
       <c r="J28" s="3">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>2265</v>
+        <v>2574</v>
       </c>
       <c r="B29">
-        <v>632</v>
+        <v>499</v>
       </c>
       <c r="C29">
-        <v>690</v>
+        <v>565</v>
       </c>
       <c r="D29">
-        <v>0.2187084796279669</v>
+        <v>0.192427227973938</v>
       </c>
       <c r="E29">
-        <v>0.2764792999930116</v>
+        <v>0.2934960222246346</v>
       </c>
       <c r="F29">
-        <v>130.8509081268264</v>
+        <v>260.151076401293</v>
       </c>
       <c r="G29">
-        <v>0.2641453155511646</v>
+        <v>0.5252312539906525</v>
       </c>
       <c r="H29" s="2">
-        <v>44402</v>
+        <v>44269</v>
       </c>
       <c r="I29" s="2">
-        <v>44460</v>
+        <v>44335</v>
       </c>
       <c r="J29" s="3">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>2330</v>
+        <v>2802</v>
       </c>
       <c r="B30">
-        <v>631</v>
+        <v>498</v>
       </c>
       <c r="C30">
-        <v>690</v>
+        <v>565</v>
       </c>
       <c r="D30">
-        <v>0.2126384328007698</v>
+        <v>0.1767896160185337</v>
       </c>
       <c r="E30">
-        <v>0.2764792999930116</v>
+        <v>0.2934960222246346</v>
       </c>
       <c r="F30">
-        <v>148.7492205579235</v>
+        <v>327.0113501894946</v>
       </c>
       <c r="G30">
-        <v>0.3002320246220831</v>
+        <v>0.6601428796240272</v>
       </c>
       <c r="H30" s="2">
-        <v>44401</v>
+        <v>44268</v>
       </c>
       <c r="I30" s="2">
-        <v>44460</v>
+        <v>44335</v>
       </c>
       <c r="J30" s="3">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>2444</v>
+        <v>2711</v>
       </c>
       <c r="B31">
-        <v>630</v>
+        <v>497</v>
       </c>
       <c r="C31">
-        <v>690</v>
+        <v>565</v>
       </c>
       <c r="D31">
-        <v>0.2026294268071651</v>
+        <v>0.1827605754435062</v>
       </c>
       <c r="E31">
-        <v>0.2764792999930116</v>
+        <v>0.2934960222246346</v>
       </c>
       <c r="F31">
-        <v>180.4890900662089</v>
+        <v>300.203796223639</v>
       </c>
       <c r="G31">
-        <v>0.3644577905070356</v>
+        <v>0.6059044545707188</v>
       </c>
       <c r="H31" s="2">
-        <v>44400</v>
+        <v>44267</v>
       </c>
       <c r="I31" s="2">
-        <v>44460</v>
+        <v>44335</v>
       </c>
       <c r="J31" s="3">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>2480</v>
+        <v>2757</v>
       </c>
       <c r="B32">
-        <v>629</v>
+        <v>496</v>
       </c>
       <c r="C32">
-        <v>690</v>
+        <v>565</v>
       </c>
       <c r="D32">
-        <v>0.1997495528161526</v>
+        <v>0.1797075259685516</v>
       </c>
       <c r="E32">
-        <v>0.2764792999930116</v>
+        <v>0.2934960222246346</v>
       </c>
       <c r="F32">
-        <v>190.2897729986105</v>
+        <v>313.7148841780207</v>
       </c>
       <c r="G32">
-        <v>0.3841297569636131</v>
+        <v>0.6331871503032971</v>
       </c>
       <c r="H32" s="2">
-        <v>44399</v>
+        <v>44266</v>
       </c>
       <c r="I32" s="2">
-        <v>44460</v>
+        <v>44335</v>
       </c>
       <c r="J32" s="3">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>2605</v>
+        <v>2646</v>
       </c>
       <c r="B33">
-        <v>625</v>
+        <v>495</v>
       </c>
       <c r="C33">
-        <v>690</v>
+        <v>565</v>
       </c>
       <c r="D33">
-        <v>0.1901399542242288</v>
+        <v>0.1872370498329401</v>
       </c>
       <c r="E33">
-        <v>0.2764792999930116</v>
+        <v>0.2934960222246346</v>
       </c>
       <c r="F33">
-        <v>224.9139957276792</v>
+        <v>281.1612409484235</v>
       </c>
       <c r="G33">
-        <v>0.4540831311390991</v>
+        <v>0.5675103965080772</v>
       </c>
       <c r="H33" s="2">
-        <v>44395</v>
+        <v>44265</v>
       </c>
       <c r="I33" s="2">
-        <v>44460</v>
+        <v>44335</v>
       </c>
       <c r="J33" s="3">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>2481</v>
+        <v>2700</v>
       </c>
       <c r="B34">
-        <v>622</v>
+        <v>494</v>
       </c>
       <c r="C34">
-        <v>690</v>
+        <v>565</v>
       </c>
       <c r="D34">
-        <v>0.1996404418200254</v>
+        <v>0.1835053195208311</v>
       </c>
       <c r="E34">
-        <v>0.2764792999930116</v>
+        <v>0.2934960222246346</v>
       </c>
       <c r="F34">
-        <v>190.6372071271788</v>
+        <v>296.9748973002693</v>
       </c>
       <c r="G34">
-        <v>0.3848862358372056</v>
+        <v>0.5993869986494726</v>
       </c>
       <c r="H34" s="2">
-        <v>44392</v>
+        <v>44264</v>
       </c>
       <c r="I34" s="2">
-        <v>44460</v>
+        <v>44335</v>
       </c>
       <c r="J34" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>2312</v>
+        <v>2867</v>
       </c>
       <c r="B35">
-        <v>619</v>
+        <v>493</v>
       </c>
       <c r="C35">
-        <v>690</v>
+        <v>565</v>
       </c>
       <c r="D35">
-        <v>0.2142680573612451</v>
+        <v>0.1728186469823122</v>
       </c>
       <c r="E35">
-        <v>0.2764792999930116</v>
+        <v>0.2934960222246346</v>
       </c>
       <c r="F35">
-        <v>143.8323929646442</v>
+        <v>345.9820348197382</v>
       </c>
       <c r="G35">
-        <v>0.290343056253511</v>
+        <v>0.6982890871415834</v>
       </c>
       <c r="H35" s="2">
-        <v>44389</v>
+        <v>44263</v>
       </c>
       <c r="I35" s="2">
-        <v>44460</v>
+        <v>44335</v>
       </c>
       <c r="J35" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>2305</v>
+        <v>2999</v>
       </c>
       <c r="B36">
-        <v>617</v>
+        <v>492</v>
       </c>
       <c r="C36">
-        <v>690</v>
+        <v>565</v>
       </c>
       <c r="D36">
-        <v>0.2149136991202831</v>
+        <v>0.1652330685555935</v>
       </c>
       <c r="E36">
-        <v>0.2764792999930116</v>
+        <v>0.2934960222246346</v>
       </c>
       <c r="F36">
-        <v>141.9087100116392</v>
+        <v>384.6605980534542</v>
       </c>
       <c r="G36">
-        <v>0.2864666195069838</v>
+        <v>0.7762547460400542</v>
       </c>
       <c r="H36" s="2">
-        <v>44387</v>
+        <v>44262</v>
       </c>
       <c r="I36" s="2">
-        <v>44460</v>
+        <v>44335</v>
       </c>
       <c r="J36" s="3">
         <v>73</v>
@@ -1566,2562 +1566,2562 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>2131</v>
+        <v>2784</v>
       </c>
       <c r="B37">
-        <v>614</v>
+        <v>480</v>
       </c>
       <c r="C37">
-        <v>690</v>
+        <v>565</v>
       </c>
       <c r="D37">
-        <v>0.2324832543879747</v>
+        <v>0.1779197463989258</v>
       </c>
       <c r="E37">
-        <v>0.2764792999930116</v>
+        <v>0.2934960222246346</v>
       </c>
       <c r="F37">
-        <v>93.75557318433368</v>
+        <v>321.7643518987733</v>
       </c>
       <c r="G37">
-        <v>0.1892439338087339</v>
+        <v>0.6495977999348508</v>
       </c>
       <c r="H37" s="2">
-        <v>44384</v>
+        <v>44250</v>
       </c>
       <c r="I37" s="2">
-        <v>44460</v>
+        <v>44335</v>
       </c>
       <c r="J37" s="3">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>2131</v>
+        <v>2560</v>
       </c>
       <c r="B38">
-        <v>612</v>
+        <v>479</v>
       </c>
       <c r="C38">
-        <v>690</v>
+        <v>565</v>
       </c>
       <c r="D38">
-        <v>0.2325012580752372</v>
+        <v>0.1935473645925522</v>
       </c>
       <c r="E38">
-        <v>0.2764792999930116</v>
+        <v>0.2934960222246346</v>
       </c>
       <c r="F38">
-        <v>93.7172073267772</v>
+        <v>255.8685635381309</v>
       </c>
       <c r="G38">
-        <v>0.1891518449484824</v>
+        <v>0.5164041258969871</v>
       </c>
       <c r="H38" s="2">
-        <v>44382</v>
+        <v>44249</v>
       </c>
       <c r="I38" s="2">
-        <v>44460</v>
+        <v>44335</v>
       </c>
       <c r="J38" s="3">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>2222</v>
+        <v>2010</v>
       </c>
       <c r="B39">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="C39">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="D39">
-        <v>0.2229217004328966</v>
+        <v>0.2464231797903776</v>
       </c>
       <c r="E39">
-        <v>0.2764792999930116</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F39">
-        <v>119.0049862225756</v>
+        <v>119.9905856744089</v>
       </c>
       <c r="G39">
-        <v>0.2402529653062504</v>
+        <v>0.2422532200258918</v>
       </c>
       <c r="H39" s="2">
-        <v>44381</v>
+        <v>44408</v>
       </c>
       <c r="I39" s="2">
-        <v>44460</v>
+        <v>44434</v>
       </c>
       <c r="J39" s="3">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>2297</v>
+        <v>2077</v>
       </c>
       <c r="B40">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="C40">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="D40">
-        <v>0.2156103836447</v>
+        <v>0.2385312851071358</v>
       </c>
       <c r="E40">
-        <v>0.2764792999930116</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F40">
-        <v>139.8159008520717</v>
+        <v>140.3817371206491</v>
       </c>
       <c r="G40">
-        <v>0.2823097631912581</v>
+        <v>0.283353621501359</v>
       </c>
       <c r="H40" s="2">
-        <v>44380</v>
+        <v>44407</v>
       </c>
       <c r="I40" s="2">
-        <v>44460</v>
+        <v>44434</v>
       </c>
       <c r="J40" s="3">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>2175</v>
+        <v>2151</v>
       </c>
       <c r="B41">
-        <v>608</v>
+        <v>636</v>
       </c>
       <c r="C41">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="D41">
-        <v>0.2277955685555935</v>
+        <v>0.2303200822770595</v>
       </c>
       <c r="E41">
-        <v>0.2764792999930116</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F41">
-        <v>105.8871158763845</v>
+        <v>163.0455984654026</v>
       </c>
       <c r="G41">
-        <v>0.2137167625608876</v>
+        <v>0.3291068045702334</v>
       </c>
       <c r="H41" s="2">
-        <v>44378</v>
+        <v>44406</v>
       </c>
       <c r="I41" s="2">
-        <v>44460</v>
+        <v>44434</v>
       </c>
       <c r="J41" s="3">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>2286</v>
+        <v>2152</v>
       </c>
       <c r="B42">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="C42">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="D42">
-        <v>0.2167625450491905</v>
+        <v>0.2301769477427006</v>
       </c>
       <c r="E42">
-        <v>0.2764792999930116</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F42">
-        <v>136.5125018015751</v>
+        <v>163.4294238896497</v>
       </c>
       <c r="G42">
-        <v>0.2754938817048374</v>
+        <v>0.3299333038589378</v>
       </c>
       <c r="H42" s="2">
-        <v>44377</v>
+        <v>44405</v>
       </c>
       <c r="I42" s="2">
-        <v>44460</v>
+        <v>44434</v>
       </c>
       <c r="J42" s="3">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>2374</v>
+        <v>2221</v>
       </c>
       <c r="B43">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="C43">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="D43">
-        <v>0.2086504296213388</v>
+        <v>0.2230037835240364</v>
       </c>
       <c r="E43">
-        <v>0.2764792999930116</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F43">
-        <v>161.0257382623513</v>
+        <v>184.6010914373259</v>
       </c>
       <c r="G43">
-        <v>0.3250837800562856</v>
+        <v>0.3727120847284675</v>
       </c>
       <c r="H43" s="2">
-        <v>44376</v>
+        <v>44404</v>
       </c>
       <c r="I43" s="2">
-        <v>44460</v>
+        <v>44434</v>
       </c>
       <c r="J43" s="3">
-        <v>84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>2497</v>
+        <v>2260</v>
       </c>
       <c r="B44">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="C44">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="D44">
-        <v>0.1984252302199602</v>
+        <v>0.219200993090868</v>
       </c>
       <c r="E44">
-        <v>0.2764792999930116</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F44">
-        <v>194.9010122233094</v>
+        <v>196.4369298136102</v>
       </c>
       <c r="G44">
-        <v>0.3933676664329744</v>
+        <v>0.3965264676365601</v>
       </c>
       <c r="H44" s="2">
-        <v>44375</v>
+        <v>44403</v>
       </c>
       <c r="I44" s="2">
-        <v>44460</v>
+        <v>44434</v>
       </c>
       <c r="J44" s="3">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>2705</v>
+        <v>2265</v>
       </c>
       <c r="B45">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="C45">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="D45">
-        <v>0.1831669784784317</v>
+        <v>0.2187084796279669</v>
       </c>
       <c r="E45">
-        <v>0.2764792999930116</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F45">
-        <v>252.4098296969387</v>
+        <v>197.9870677845449</v>
       </c>
       <c r="G45">
-        <v>0.5094385586841335</v>
+        <v>0.3996713300935564</v>
       </c>
       <c r="H45" s="2">
-        <v>44374</v>
+        <v>44402</v>
       </c>
       <c r="I45" s="2">
-        <v>44460</v>
+        <v>44434</v>
       </c>
       <c r="J45" s="3">
-        <v>86</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>2488</v>
+        <v>2330</v>
       </c>
       <c r="B46">
-        <v>602</v>
+        <v>631</v>
       </c>
       <c r="C46">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="D46">
-        <v>0.1991519556939602</v>
+        <v>0.2126384328007698</v>
       </c>
       <c r="E46">
-        <v>0.2764792999930116</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F46">
-        <v>192.39043261604</v>
+        <v>217.8120249740313</v>
       </c>
       <c r="G46">
-        <v>0.3882831279743071</v>
+        <v>0.4396268094697302</v>
       </c>
       <c r="H46" s="2">
-        <v>44372</v>
+        <v>44401</v>
       </c>
       <c r="I46" s="2">
-        <v>44460</v>
+        <v>44434</v>
       </c>
       <c r="J46" s="3">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>2515</v>
+        <v>2305</v>
       </c>
       <c r="B47">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C47">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="D47">
-        <v>0.1969917966276407</v>
+        <v>0.2149136991202831</v>
       </c>
       <c r="E47">
-        <v>0.2764792999930116</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F47">
-        <v>199.9110709639079</v>
+        <v>210.2304972129819</v>
       </c>
       <c r="G47">
-        <v>0.4035066674152954</v>
+        <v>0.424385647991133</v>
       </c>
       <c r="H47" s="2">
-        <v>44371</v>
+        <v>44387</v>
       </c>
       <c r="I47" s="2">
-        <v>44460</v>
+        <v>44434</v>
       </c>
       <c r="J47" s="3">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>2206</v>
+        <v>2338</v>
       </c>
       <c r="B48">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="C48">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="D48">
-        <v>0.224573341101408</v>
+        <v>0.2118436453342437</v>
       </c>
       <c r="E48">
-        <v>0.2764792999930116</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F48">
-        <v>114.5045453148777</v>
+        <v>220.4180905170319</v>
       </c>
       <c r="G48">
-        <v>0.2311314363362706</v>
+        <v>0.4450279502159449</v>
       </c>
       <c r="H48" s="2">
-        <v>44368</v>
+        <v>44386</v>
       </c>
       <c r="I48" s="2">
-        <v>44460</v>
+        <v>44434</v>
       </c>
       <c r="J48" s="3">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>2085</v>
+        <v>2136</v>
       </c>
       <c r="B49">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="C49">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="D49">
-        <v>0.2375653358250856</v>
+        <v>0.2318566306084394</v>
       </c>
       <c r="E49">
-        <v>0.2764792999930116</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F49">
-        <v>81.13561529012571</v>
+        <v>158.6265326349768</v>
       </c>
       <c r="G49">
-        <v>0.1638032082112246</v>
+        <v>0.3202986163487933</v>
       </c>
       <c r="H49" s="2">
-        <v>44365</v>
+        <v>44385</v>
       </c>
       <c r="I49" s="2">
-        <v>44460</v>
+        <v>44434</v>
       </c>
       <c r="J49" s="3">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>1918</v>
+        <v>2131</v>
       </c>
       <c r="B50">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="C50">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="D50">
-        <v>0.2583160695433616</v>
+        <v>0.2324832543879747</v>
       </c>
       <c r="E50">
-        <v>0.2764792999930116</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F50">
-        <v>34.83707600242872</v>
+        <v>156.9198805709112</v>
       </c>
       <c r="G50">
-        <v>0.07031397807251438</v>
+        <v>0.3167399492470715</v>
       </c>
       <c r="H50" s="2">
-        <v>44362</v>
+        <v>44384</v>
       </c>
       <c r="I50" s="2">
-        <v>44460</v>
+        <v>44434</v>
       </c>
       <c r="J50" s="3">
-        <v>98</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>1972</v>
+        <v>2253</v>
       </c>
       <c r="B51">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="C51">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="D51">
-        <v>0.2511839543282985</v>
+        <v>0.2199046881645918</v>
       </c>
       <c r="E51">
-        <v>0.2764792999930116</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F51">
-        <v>49.88242165081421</v>
+        <v>194.2430718440612</v>
       </c>
       <c r="G51">
-        <v>0.1007044647113564</v>
+        <v>0.3920575824854384</v>
       </c>
       <c r="H51" s="2">
-        <v>44361</v>
+        <v>44383</v>
       </c>
       <c r="I51" s="2">
-        <v>44460</v>
+        <v>44434</v>
       </c>
       <c r="J51" s="3">
-        <v>99</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
-        <v>2087</v>
+        <v>2131</v>
       </c>
       <c r="B52">
-        <v>590</v>
+        <v>612</v>
       </c>
       <c r="C52">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="D52">
-        <v>0.237301053032279</v>
+        <v>0.2325012580752372</v>
       </c>
       <c r="E52">
-        <v>0.2764792999930116</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F52">
-        <v>81.765001407049</v>
+        <v>156.8815147133548</v>
       </c>
       <c r="G52">
-        <v>0.1650993388360709</v>
+        <v>0.316637987758998</v>
       </c>
       <c r="H52" s="2">
-        <v>44360</v>
+        <v>44382</v>
       </c>
       <c r="I52" s="2">
-        <v>44460</v>
+        <v>44434</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>1896</v>
+        <v>2222</v>
       </c>
       <c r="B53">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="C53">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="D53">
-        <v>0.2612810247540474</v>
+        <v>0.2229217004328966</v>
       </c>
       <c r="E53">
-        <v>0.2764792999930116</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F53">
-        <v>28.81592985307627</v>
+        <v>184.8665962708982</v>
       </c>
       <c r="G53">
-        <v>0.05816830844593834</v>
+        <v>0.373217537768439</v>
       </c>
       <c r="H53" s="2">
-        <v>44357</v>
+        <v>44381</v>
       </c>
       <c r="I53" s="2">
-        <v>44460</v>
+        <v>44434</v>
       </c>
       <c r="J53" s="3">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>2074</v>
+        <v>2297</v>
       </c>
       <c r="B54">
-        <v>577</v>
+        <v>610</v>
       </c>
       <c r="C54">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="D54">
-        <v>0.2388205821365118</v>
+        <v>0.2156103836447</v>
       </c>
       <c r="E54">
-        <v>0.2764792999930116</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F54">
-        <v>78.10418083438068</v>
+        <v>207.9005625446896</v>
       </c>
       <c r="G54">
-        <v>0.1576862325667301</v>
+        <v>0.4197831449902001</v>
       </c>
       <c r="H54" s="2">
-        <v>44347</v>
+        <v>44380</v>
       </c>
       <c r="I54" s="2">
-        <v>44460</v>
+        <v>44434</v>
       </c>
       <c r="J54" s="3">
-        <v>113</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>1372</v>
+        <v>2349</v>
       </c>
       <c r="B55">
-        <v>713</v>
+        <v>609</v>
       </c>
       <c r="C55">
-        <v>764</v>
+        <v>664</v>
       </c>
       <c r="D55">
-        <v>0.3611017304360866</v>
+        <v>0.2108516376912594</v>
       </c>
       <c r="E55">
-        <v>0.3876333521331177</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F55">
-        <v>36.4013849683266</v>
+        <v>223.7853562461453</v>
       </c>
       <c r="G55">
-        <v>0.07347409181614828</v>
+        <v>0.4518264687697311</v>
       </c>
       <c r="H55" s="2">
-        <v>44483</v>
+        <v>44379</v>
       </c>
       <c r="I55" s="2">
-        <v>44534</v>
+        <v>44434</v>
       </c>
       <c r="J55" s="3">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>1397</v>
+        <v>2175</v>
       </c>
       <c r="B56">
-        <v>711</v>
+        <v>608</v>
       </c>
       <c r="C56">
-        <v>764</v>
+        <v>664</v>
       </c>
       <c r="D56">
-        <v>0.3545662278831005</v>
+        <v>0.2277955685555935</v>
       </c>
       <c r="E56">
-        <v>0.3876333521331177</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F56">
-        <v>46.19477257727399</v>
+        <v>170.3556135609487</v>
       </c>
       <c r="G56">
-        <v>0.09326078359871115</v>
+        <v>0.3438364518004542</v>
       </c>
       <c r="H56" s="2">
-        <v>44481</v>
+        <v>44378</v>
       </c>
       <c r="I56" s="2">
-        <v>44534</v>
+        <v>44434</v>
       </c>
       <c r="J56" s="3">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
-        <v>1384</v>
+        <v>1896</v>
       </c>
       <c r="B57">
-        <v>709</v>
+        <v>587</v>
       </c>
       <c r="C57">
-        <v>764</v>
+        <v>664</v>
       </c>
       <c r="D57">
-        <v>0.3578404825627803</v>
+        <v>0.2612810247540474</v>
       </c>
       <c r="E57">
-        <v>0.3876333521331177</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F57">
-        <v>41.23333148534687</v>
+        <v>85.01467542086183</v>
       </c>
       <c r="G57">
-        <v>0.08325740384924285</v>
+        <v>0.1716120176418356</v>
       </c>
       <c r="H57" s="2">
-        <v>44479</v>
+        <v>44357</v>
       </c>
       <c r="I57" s="2">
-        <v>44534</v>
+        <v>44434</v>
       </c>
       <c r="J57" s="3">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <v>1379</v>
+        <v>1974</v>
       </c>
       <c r="B58">
-        <v>707</v>
+        <v>586</v>
       </c>
       <c r="C58">
-        <v>764</v>
+        <v>664</v>
       </c>
       <c r="D58">
-        <v>0.3591057524681091</v>
+        <v>0.250993744701147</v>
       </c>
       <c r="E58">
-        <v>0.3876333521331177</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F58">
-        <v>39.33955993804681</v>
+        <v>108.8192054239934</v>
       </c>
       <c r="G58">
-        <v>0.0794406646759076</v>
+        <v>0.2196319432108016</v>
       </c>
       <c r="H58" s="2">
-        <v>44477</v>
+        <v>44356</v>
       </c>
       <c r="I58" s="2">
-        <v>44534</v>
+        <v>44434</v>
       </c>
       <c r="J58" s="3">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <v>1384</v>
+        <v>1909</v>
       </c>
       <c r="B59">
-        <v>706</v>
+        <v>585</v>
       </c>
       <c r="C59">
-        <v>764</v>
+        <v>664</v>
       </c>
       <c r="D59">
-        <v>0.3578454645276069</v>
+        <v>0.2594642185270786</v>
       </c>
       <c r="E59">
-        <v>0.3876333521331177</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F59">
-        <v>41.2264364460269</v>
+        <v>89.06586503792953</v>
       </c>
       <c r="G59">
-        <v>0.08324232261776432</v>
+        <v>0.1798158155347653</v>
       </c>
       <c r="H59" s="2">
-        <v>44476</v>
+        <v>44355</v>
       </c>
       <c r="I59" s="2">
-        <v>44534</v>
+        <v>44434</v>
       </c>
       <c r="J59" s="3">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>1408</v>
+        <v>1825</v>
       </c>
       <c r="B60">
-        <v>705</v>
+        <v>584</v>
       </c>
       <c r="C60">
-        <v>764</v>
+        <v>664</v>
       </c>
       <c r="D60">
-        <v>0.3518995342552662</v>
+        <v>0.2714631763994693</v>
       </c>
       <c r="E60">
-        <v>0.3876333521331177</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F60">
-        <v>50.31321557201493</v>
+        <v>63.24868223606739</v>
       </c>
       <c r="G60">
-        <v>0.1015455105772616</v>
+        <v>0.1276667157727043</v>
       </c>
       <c r="H60" s="2">
-        <v>44475</v>
+        <v>44354</v>
       </c>
       <c r="I60" s="2">
-        <v>44534</v>
+        <v>44434</v>
       </c>
       <c r="J60" s="3">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>1448</v>
+        <v>1883</v>
       </c>
       <c r="B61">
-        <v>703</v>
+        <v>583</v>
       </c>
       <c r="C61">
-        <v>764</v>
+        <v>664</v>
       </c>
       <c r="D61">
-        <v>0.3421147763431072</v>
+        <v>0.2630257565677166</v>
       </c>
       <c r="E61">
-        <v>0.3876333521331177</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F61">
-        <v>65.91089774393521</v>
+        <v>81.14643888593827</v>
       </c>
       <c r="G61">
-        <v>0.1330505986223756</v>
+        <v>0.1638403500031547</v>
       </c>
       <c r="H61" s="2">
-        <v>44473</v>
+        <v>44353</v>
       </c>
       <c r="I61" s="2">
-        <v>44534</v>
+        <v>44434</v>
       </c>
       <c r="J61" s="3">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>1461</v>
+        <v>1840</v>
       </c>
       <c r="B62">
-        <v>702</v>
+        <v>582</v>
       </c>
       <c r="C62">
-        <v>764</v>
+        <v>664</v>
       </c>
       <c r="D62">
-        <v>0.3391157826781273</v>
+        <v>0.2692229628264904</v>
       </c>
       <c r="E62">
-        <v>0.3876333521331177</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F62">
-        <v>70.884168973741</v>
+        <v>67.89052739311082</v>
       </c>
       <c r="G62">
-        <v>0.1430708092434643</v>
+        <v>0.1370500694656753</v>
       </c>
       <c r="H62" s="2">
-        <v>44472</v>
+        <v>44352</v>
       </c>
       <c r="I62" s="2">
-        <v>44534</v>
+        <v>44434</v>
       </c>
       <c r="J62" s="3">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>1495</v>
+        <v>1732</v>
       </c>
       <c r="B63">
-        <v>701</v>
+        <v>581</v>
       </c>
       <c r="C63">
-        <v>764</v>
+        <v>664</v>
       </c>
       <c r="D63">
-        <v>0.3313219909369945</v>
+        <v>0.2860107225179672</v>
       </c>
       <c r="E63">
-        <v>0.3876333521331177</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F63">
-        <v>84.18548498820415</v>
+        <v>34.8292488257034</v>
       </c>
       <c r="G63">
-        <v>0.1699596245841453</v>
+        <v>0.07030948311521912</v>
       </c>
       <c r="H63" s="2">
-        <v>44471</v>
+        <v>44351</v>
       </c>
       <c r="I63" s="2">
-        <v>44534</v>
+        <v>44434</v>
       </c>
       <c r="J63" s="3">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>1649</v>
+        <v>1829</v>
       </c>
       <c r="B64">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="C64">
-        <v>764</v>
+        <v>664</v>
       </c>
       <c r="D64">
-        <v>0.3003620627522468</v>
+        <v>0.2708916227221488</v>
       </c>
       <c r="E64">
-        <v>0.3876333521331177</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F64">
-        <v>143.910356189056</v>
+        <v>64.43268116062313</v>
       </c>
       <c r="G64">
-        <v>0.2905536357727589</v>
+        <v>0.1300459774557163</v>
       </c>
       <c r="H64" s="2">
-        <v>44470</v>
+        <v>44350</v>
       </c>
       <c r="I64" s="2">
-        <v>44534</v>
+        <v>44434</v>
       </c>
       <c r="J64" s="3">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>1736</v>
+        <v>1878</v>
       </c>
       <c r="B65">
-        <v>699</v>
+        <v>579</v>
       </c>
       <c r="C65">
-        <v>764</v>
+        <v>664</v>
       </c>
       <c r="D65">
-        <v>0.2853300429284572</v>
+        <v>0.2636944436430931</v>
       </c>
       <c r="E65">
-        <v>0.3876333521331177</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F65">
-        <v>177.5985447792906</v>
+        <v>79.67517339830172</v>
       </c>
       <c r="G65">
-        <v>0.3585437697155209</v>
+        <v>0.1608890363952651</v>
       </c>
       <c r="H65" s="2">
-        <v>44469</v>
+        <v>44349</v>
       </c>
       <c r="I65" s="2">
-        <v>44534</v>
+        <v>44434</v>
       </c>
       <c r="J65" s="3">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>1617</v>
+        <v>1829</v>
       </c>
       <c r="B66">
-        <v>696</v>
+        <v>578</v>
       </c>
       <c r="C66">
-        <v>764</v>
+        <v>664</v>
       </c>
       <c r="D66">
-        <v>0.3062419447004795</v>
+        <v>0.2708855966329574</v>
       </c>
       <c r="E66">
-        <v>0.3876333521331177</v>
+        <v>0.3061199885836158</v>
       </c>
       <c r="F66">
-        <v>131.6099058185759</v>
+        <v>64.44370287775425</v>
       </c>
       <c r="G66">
-        <v>0.2657748516854646</v>
+        <v>0.1300711163259081</v>
       </c>
       <c r="H66" s="2">
-        <v>44466</v>
+        <v>44348</v>
       </c>
       <c r="I66" s="2">
-        <v>44534</v>
+        <v>44434</v>
       </c>
       <c r="J66" s="3">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>1570</v>
+        <v>1276</v>
       </c>
       <c r="B67">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="C67">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D67">
-        <v>0.3155562201738357</v>
+        <v>0.3880856927037238</v>
       </c>
       <c r="E67">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F67">
-        <v>113.1610971760727</v>
+        <v>56.01966820146924</v>
       </c>
       <c r="G67">
-        <v>0.2284129652699465</v>
+        <v>0.1131259464386758</v>
       </c>
       <c r="H67" s="2">
-        <v>44463</v>
+        <v>44489</v>
       </c>
       <c r="I67" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J67" s="3">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>1608</v>
+        <v>1321</v>
       </c>
       <c r="B68">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="C68">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D68">
-        <v>0.3079996833205223</v>
+        <v>0.374870479106903</v>
       </c>
       <c r="E68">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F68">
-        <v>128.0509394506533</v>
+        <v>75.45258062075834</v>
       </c>
       <c r="G68">
-        <v>0.2585511386053081</v>
+        <v>0.1523666921420885</v>
       </c>
       <c r="H68" s="2">
-        <v>44462</v>
+        <v>44488</v>
       </c>
       <c r="I68" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J68" s="3">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>1443</v>
+        <v>1286</v>
       </c>
       <c r="B69">
-        <v>670</v>
+        <v>717</v>
       </c>
       <c r="C69">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D69">
-        <v>0.343261911034584</v>
+        <v>0.3850847002863884</v>
       </c>
       <c r="E69">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F69">
-        <v>64.02798950518404</v>
+        <v>60.31797006302684</v>
       </c>
       <c r="G69">
-        <v>0.1292640973908206</v>
+        <v>0.1218006159914198</v>
       </c>
       <c r="H69" s="2">
-        <v>44440</v>
+        <v>44487</v>
       </c>
       <c r="I69" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J69" s="3">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>1532</v>
+        <v>1292</v>
       </c>
       <c r="B70">
-        <v>669</v>
+        <v>716</v>
       </c>
       <c r="C70">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D70">
-        <v>0.3232368884980678</v>
+        <v>0.3833789888918399</v>
       </c>
       <c r="E70">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F70">
-        <v>98.65538228889639</v>
+        <v>62.80317050700596</v>
       </c>
       <c r="G70">
-        <v>0.1992237455764112</v>
+        <v>0.1267916774437934</v>
       </c>
       <c r="H70" s="2">
-        <v>44439</v>
+        <v>44486</v>
       </c>
       <c r="I70" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J70" s="3">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>1512</v>
+        <v>1279</v>
       </c>
       <c r="B71">
-        <v>666</v>
+        <v>715</v>
       </c>
       <c r="C71">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D71">
-        <v>0.3277163908481597</v>
+        <v>0.387224827080965</v>
       </c>
       <c r="E71">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F71">
-        <v>90.5944454628564</v>
+        <v>57.25242301683704</v>
       </c>
       <c r="G71">
-        <v>0.1828317501297003</v>
+        <v>0.1156006117857136</v>
       </c>
       <c r="H71" s="2">
-        <v>44436</v>
+        <v>44485</v>
       </c>
       <c r="I71" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J71" s="3">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>1533</v>
+        <v>1305</v>
       </c>
       <c r="B72">
-        <v>664</v>
+        <v>714</v>
       </c>
       <c r="C72">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D72">
-        <v>0.3230106714963913</v>
+        <v>0.3794610762894153</v>
       </c>
       <c r="E72">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F72">
-        <v>99.06656941610154</v>
+        <v>68.54796689944796</v>
       </c>
       <c r="G72">
-        <v>0.2000636088502987</v>
+        <v>0.1384257331855134</v>
       </c>
       <c r="H72" s="2">
-        <v>44434</v>
+        <v>44484</v>
       </c>
       <c r="I72" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J72" s="3">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>1490</v>
+        <v>1372</v>
       </c>
       <c r="B73">
-        <v>662</v>
+        <v>713</v>
       </c>
       <c r="C73">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D73">
-        <v>0.3324601163268089</v>
+        <v>0.3611017304360866</v>
       </c>
       <c r="E73">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F73">
-        <v>82.2081213514001</v>
+        <v>97.25631031616362</v>
       </c>
       <c r="G73">
-        <v>0.1659544501635</v>
+        <v>0.1963062416467753</v>
       </c>
       <c r="H73" s="2">
-        <v>44432</v>
+        <v>44483</v>
       </c>
       <c r="I73" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J73" s="3">
-        <v>102</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>1528</v>
+        <v>1417</v>
       </c>
       <c r="B74">
-        <v>661</v>
+        <v>712</v>
       </c>
       <c r="C74">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D74">
-        <v>0.3241237975656986</v>
+        <v>0.3494921414554119</v>
       </c>
       <c r="E74">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F74">
-        <v>97.04259937901635</v>
+        <v>116.8969914617122</v>
       </c>
       <c r="G74">
-        <v>0.1959422758970544</v>
+        <v>0.2360456867247034</v>
       </c>
       <c r="H74" s="2">
-        <v>44431</v>
+        <v>44482</v>
       </c>
       <c r="I74" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J74" s="3">
-        <v>103</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>1506</v>
+        <v>1397</v>
       </c>
       <c r="B75">
-        <v>659</v>
+        <v>711</v>
       </c>
       <c r="C75">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D75">
-        <v>0.3288094995617866</v>
+        <v>0.3545662278831005</v>
       </c>
       <c r="E75">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F75">
-        <v>88.58872197242455</v>
+        <v>108.1585704715366</v>
       </c>
       <c r="G75">
-        <v>0.1788994924104297</v>
+        <v>0.2183570233670622</v>
       </c>
       <c r="H75" s="2">
-        <v>44429</v>
+        <v>44481</v>
       </c>
       <c r="I75" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J75" s="3">
-        <v>105</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>1554</v>
+        <v>1449</v>
       </c>
       <c r="B76">
-        <v>658</v>
+        <v>710</v>
       </c>
       <c r="C76">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D76">
-        <v>0.3187294334471225</v>
+        <v>0.3417634135782718</v>
       </c>
       <c r="E76">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F76">
-        <v>107.0766896380365</v>
+        <v>130.7357937567995</v>
       </c>
       <c r="G76">
-        <v>0.2161831053404308</v>
+        <v>0.2639979495382887</v>
       </c>
       <c r="H76" s="2">
-        <v>44428</v>
+        <v>44480</v>
       </c>
       <c r="I76" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J76" s="3">
-        <v>106</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
-        <v>1642</v>
+        <v>1384</v>
       </c>
       <c r="B77">
-        <v>657</v>
+        <v>709</v>
       </c>
       <c r="C77">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D77">
-        <v>0.3017194244265556</v>
+        <v>0.3578404825627803</v>
       </c>
       <c r="E77">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F77">
-        <v>141.0706692941749</v>
+        <v>102.6205156554682</v>
       </c>
       <c r="G77">
-        <v>0.2847477515570935</v>
+        <v>0.2072090080371294</v>
       </c>
       <c r="H77" s="2">
-        <v>44427</v>
+        <v>44479</v>
       </c>
       <c r="I77" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J77" s="3">
-        <v>107</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
-        <v>1496</v>
+        <v>1389</v>
       </c>
       <c r="B78">
-        <v>654</v>
+        <v>708</v>
       </c>
       <c r="C78">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D78">
-        <v>0.3310657329857349</v>
+        <v>0.3566693031787872</v>
       </c>
       <c r="E78">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F78">
-        <v>84.62515824448465</v>
+        <v>104.6180226769714</v>
       </c>
       <c r="G78">
-        <v>0.1708652195357838</v>
+        <v>0.2111730674327179</v>
       </c>
       <c r="H78" s="2">
-        <v>44424</v>
+        <v>44478</v>
       </c>
       <c r="I78" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J78" s="3">
-        <v>110</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
-        <v>1489</v>
+        <v>1379</v>
       </c>
       <c r="B79">
-        <v>652</v>
+        <v>707</v>
       </c>
       <c r="C79">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D79">
-        <v>0.3325652447342872</v>
+        <v>0.3591057524681091</v>
       </c>
       <c r="E79">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F79">
-        <v>81.99641191685853</v>
+        <v>100.504969598883</v>
       </c>
       <c r="G79">
-        <v>0.1655858760672022</v>
+        <v>0.202955538921658</v>
       </c>
       <c r="H79" s="2">
-        <v>44422</v>
+        <v>44477</v>
       </c>
       <c r="I79" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J79" s="3">
-        <v>112</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
-        <v>1566</v>
+        <v>1384</v>
       </c>
       <c r="B80">
-        <v>650</v>
+        <v>706</v>
       </c>
       <c r="C80">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D80">
-        <v>0.3163560194373131</v>
+        <v>0.3578454645276069</v>
       </c>
       <c r="E80">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F80">
-        <v>111.62030300163</v>
+        <v>102.6136206161482</v>
       </c>
       <c r="G80">
-        <v>0.2253073383037949</v>
+        <v>0.2071922011374687</v>
       </c>
       <c r="H80" s="2">
-        <v>44420</v>
+        <v>44476</v>
       </c>
       <c r="I80" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J80" s="3">
-        <v>114</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81">
-        <v>1566</v>
+        <v>1408</v>
       </c>
       <c r="B81">
-        <v>648</v>
+        <v>705</v>
       </c>
       <c r="C81">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D81">
-        <v>0.3163670573234558</v>
+        <v>0.3518995342552662</v>
       </c>
       <c r="E81">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F81">
-        <v>111.6030176719305</v>
+        <v>112.7649173867048</v>
       </c>
       <c r="G81">
-        <v>0.2252645879523378</v>
+        <v>0.2275897292798905</v>
       </c>
       <c r="H81" s="2">
-        <v>44418</v>
+        <v>44475</v>
       </c>
       <c r="I81" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J81" s="3">
-        <v>116</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82">
-        <v>1566</v>
+        <v>1461</v>
       </c>
       <c r="B82">
-        <v>646</v>
+        <v>704</v>
       </c>
       <c r="C82">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D82">
-        <v>0.3163640442788601</v>
+        <v>0.3389696350991726</v>
       </c>
       <c r="E82">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F82">
-        <v>111.6077360997674</v>
+        <v>135.900202199706</v>
       </c>
       <c r="G82">
-        <v>0.2252762573468592</v>
+        <v>0.2744157861330401</v>
       </c>
       <c r="H82" s="2">
-        <v>44416</v>
+        <v>44474</v>
       </c>
       <c r="I82" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J82" s="3">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83">
-        <v>1711</v>
+        <v>1448</v>
       </c>
       <c r="B83">
-        <v>645</v>
+        <v>703</v>
       </c>
       <c r="C83">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D83">
-        <v>0.2894431471228599</v>
+        <v>0.3421147763431072</v>
       </c>
       <c r="E83">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F83">
-        <v>168.003440772551</v>
+        <v>130.1367956329061</v>
       </c>
       <c r="G83">
-        <v>0.3392383132449115</v>
+        <v>0.262699783410993</v>
       </c>
       <c r="H83" s="2">
-        <v>44415</v>
+        <v>44473</v>
       </c>
       <c r="I83" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J83" s="3">
-        <v>119</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84">
-        <v>1750</v>
+        <v>1461</v>
       </c>
       <c r="B84">
-        <v>644</v>
+        <v>702</v>
       </c>
       <c r="C84">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D84">
-        <v>0.2829837164878845</v>
+        <v>0.3391157826781273</v>
       </c>
       <c r="E84">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F84">
-        <v>183.136862379158</v>
+        <v>135.6866805868532</v>
       </c>
       <c r="G84">
-        <v>0.3698079767417062</v>
+        <v>0.2738665554831008</v>
       </c>
       <c r="H84" s="2">
-        <v>44414</v>
+        <v>44472</v>
       </c>
       <c r="I84" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J84" s="3">
-        <v>120</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85">
-        <v>1816</v>
+        <v>1495</v>
       </c>
       <c r="B85">
-        <v>643</v>
+        <v>701</v>
       </c>
       <c r="C85">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D85">
-        <v>0.2727274618446827</v>
+        <v>0.3313219909369945</v>
       </c>
       <c r="E85">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F85">
-        <v>208.669096763798</v>
+        <v>150.4960632644551</v>
       </c>
       <c r="G85">
-        <v>0.4213213055672169</v>
+        <v>0.3038321204350434</v>
       </c>
       <c r="H85" s="2">
-        <v>44413</v>
+        <v>44471</v>
       </c>
       <c r="I85" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J85" s="3">
-        <v>121</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
-        <v>1825</v>
+        <v>1487</v>
       </c>
       <c r="B86">
-        <v>584</v>
+        <v>689</v>
       </c>
       <c r="C86">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D86">
-        <v>0.2714631763994693</v>
+        <v>0.3331898697614669</v>
       </c>
       <c r="E86">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F86">
-        <v>212.0105707139082</v>
+        <v>146.9131973480395</v>
       </c>
       <c r="G86">
-        <v>0.4279408252510062</v>
+        <v>0.2965227733346314</v>
       </c>
       <c r="H86" s="2">
-        <v>44354</v>
+        <v>44459</v>
       </c>
       <c r="I86" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J86" s="3">
-        <v>180</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87">
-        <v>1732</v>
+        <v>1440</v>
       </c>
       <c r="B87">
-        <v>581</v>
+        <v>688</v>
       </c>
       <c r="C87">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D87">
-        <v>0.2860107225179672</v>
+        <v>0.3439075677096843</v>
       </c>
       <c r="E87">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F87">
-        <v>176.0103944934406</v>
+        <v>126.8361882438587</v>
       </c>
       <c r="G87">
-        <v>0.3553105587108416</v>
+        <v>0.2561173249749835</v>
       </c>
       <c r="H87" s="2">
-        <v>44351</v>
+        <v>44458</v>
       </c>
       <c r="I87" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J87" s="3">
-        <v>183</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88">
-        <v>1829</v>
+        <v>1445</v>
       </c>
       <c r="B88">
-        <v>580</v>
+        <v>679</v>
       </c>
       <c r="C88">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D88">
-        <v>0.2708916227221488</v>
+        <v>0.3428364751040935</v>
       </c>
       <c r="E88">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F88">
-        <v>213.520623092662</v>
+        <v>128.8243204903396</v>
       </c>
       <c r="G88">
-        <v>0.4309536346596801</v>
+        <v>0.2600416973105897</v>
       </c>
       <c r="H88" s="2">
-        <v>44350</v>
+        <v>44449</v>
       </c>
       <c r="I88" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J88" s="3">
-        <v>184</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89">
-        <v>1829</v>
+        <v>1414</v>
       </c>
       <c r="B89">
-        <v>578</v>
+        <v>678</v>
       </c>
       <c r="C89">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D89">
-        <v>0.2708855966329574</v>
+        <v>0.3502508917152881</v>
       </c>
       <c r="E89">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F89">
-        <v>213.5316448097931</v>
+        <v>115.576630256643</v>
       </c>
       <c r="G89">
-        <v>0.4309854674862994</v>
+        <v>0.2333680347666218</v>
       </c>
       <c r="H89" s="2">
-        <v>44348</v>
+        <v>44448</v>
       </c>
       <c r="I89" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J89" s="3">
-        <v>186</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90">
-        <v>1715</v>
+        <v>1441</v>
       </c>
       <c r="B90">
-        <v>573</v>
+        <v>677</v>
       </c>
       <c r="C90">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D90">
-        <v>0.288770492374897</v>
+        <v>0.3438274982869625</v>
       </c>
       <c r="E90">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F90">
-        <v>169.5498044853485</v>
+        <v>127.0396489682813</v>
       </c>
       <c r="G90">
-        <v>0.3423579014086791</v>
+        <v>0.2564098454673316</v>
       </c>
       <c r="H90" s="2">
-        <v>44343</v>
+        <v>44447</v>
       </c>
       <c r="I90" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J90" s="3">
-        <v>191</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91">
-        <v>1829</v>
+        <v>1260</v>
       </c>
       <c r="B91">
-        <v>572</v>
+        <v>676</v>
       </c>
       <c r="C91">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D91">
-        <v>0.2707805278897285</v>
+        <v>0.3930596625208854</v>
       </c>
       <c r="E91">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F91">
-        <v>213.7238155411588</v>
+        <v>49.05002525126295</v>
       </c>
       <c r="G91">
-        <v>0.4315407210188165</v>
+        <v>0.09903990457730538</v>
       </c>
       <c r="H91" s="2">
-        <v>44342</v>
+        <v>44446</v>
       </c>
       <c r="I91" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J91" s="3">
-        <v>192</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92">
-        <v>1869</v>
+        <v>1253</v>
       </c>
       <c r="B92">
-        <v>571</v>
+        <v>675</v>
       </c>
       <c r="C92">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D92">
-        <v>0.2650567872822284</v>
+        <v>0.3954230231046676</v>
       </c>
       <c r="E92">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F92">
-        <v>229.095599706312</v>
+        <v>45.8162342994991</v>
       </c>
       <c r="G92">
-        <v>0.4624539748924505</v>
+        <v>0.09247117327256738</v>
       </c>
       <c r="H92" s="2">
-        <v>44341</v>
+        <v>44445</v>
       </c>
       <c r="I92" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J92" s="3">
-        <v>193</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93">
-        <v>1787</v>
+        <v>1273</v>
       </c>
       <c r="B93">
-        <v>567</v>
+        <v>674</v>
       </c>
       <c r="C93">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D93">
-        <v>0.2770637998282909</v>
+        <v>0.3889495713710784</v>
       </c>
       <c r="E93">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F93">
-        <v>197.5877899687254</v>
+        <v>54.78824297406757</v>
       </c>
       <c r="G93">
-        <v>0.3990761419331998</v>
+        <v>0.1106536316966451</v>
       </c>
       <c r="H93" s="2">
-        <v>44337</v>
+        <v>44444</v>
       </c>
       <c r="I93" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J93" s="3">
-        <v>197</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94">
-        <v>1466</v>
+        <v>1256</v>
       </c>
       <c r="B94">
-        <v>565</v>
+        <v>673</v>
       </c>
       <c r="C94">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D94">
-        <v>0.3378455009758472</v>
+        <v>0.3942048282921314</v>
       </c>
       <c r="E94">
-        <v>0.3876333521331177</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F94">
-        <v>72.98898979655851</v>
+        <v>47.45598267670101</v>
       </c>
       <c r="G94">
-        <v>0.1473686966778043</v>
+        <v>0.09584719157729449</v>
       </c>
       <c r="H94" s="2">
-        <v>44335</v>
+        <v>44443</v>
       </c>
       <c r="I94" s="2">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="J94" s="3">
-        <v>199</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95">
-        <v>1478</v>
+        <v>1307</v>
       </c>
       <c r="B95">
-        <v>808</v>
+        <v>672</v>
       </c>
       <c r="C95">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D95">
-        <v>0.3350236802995205</v>
+        <v>0.3789605827331542</v>
       </c>
       <c r="E95">
-        <v>0.2412179857492447</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F95">
-        <v>-138.6448165453076</v>
+        <v>69.30716633288264</v>
       </c>
       <c r="G95">
-        <v>-0.2799972063658631</v>
+        <v>0.1399292529965499</v>
       </c>
       <c r="H95" s="2">
-        <v>44578</v>
+        <v>44442</v>
       </c>
       <c r="I95" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J95" s="3">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96">
-        <v>1488</v>
+        <v>1293</v>
       </c>
       <c r="B96">
-        <v>807</v>
+        <v>671</v>
       </c>
       <c r="C96">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D96">
-        <v>0.3329836402833461</v>
+        <v>0.3830646776258945</v>
       </c>
       <c r="E96">
-        <v>0.2412179857492447</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F96">
-        <v>-136.547293946743</v>
+        <v>63.25818423897164</v>
       </c>
       <c r="G96">
-        <v>-0.2755860752078246</v>
+        <v>0.1277162297172869</v>
       </c>
       <c r="H96" s="2">
-        <v>44577</v>
+        <v>44441</v>
       </c>
       <c r="I96" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J96" s="3">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97">
-        <v>1496</v>
+        <v>1443</v>
       </c>
       <c r="B97">
-        <v>806</v>
+        <v>670</v>
       </c>
       <c r="C97">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D97">
-        <v>0.3310727435350418</v>
+        <v>0.343261911034584</v>
       </c>
       <c r="E97">
-        <v>0.2412179857492447</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F97">
-        <v>-134.4227176475525</v>
+        <v>128.0321128848698</v>
       </c>
       <c r="G97">
-        <v>-0.2714048786570876</v>
+        <v>0.2584800122103219</v>
       </c>
       <c r="H97" s="2">
-        <v>44576</v>
+        <v>44440</v>
       </c>
       <c r="I97" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J97" s="3">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
-        <v>1468</v>
+        <v>1535</v>
       </c>
       <c r="B98">
-        <v>804</v>
+        <v>668</v>
       </c>
       <c r="C98">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D98">
-        <v>0.3374971810877323</v>
+        <v>0.3226693323254585</v>
       </c>
       <c r="E98">
-        <v>0.2412179857492447</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F98">
-        <v>-141.3378587568998</v>
+        <v>167.8045447552888</v>
       </c>
       <c r="G98">
-        <v>-0.2852740725957644</v>
+        <v>0.3387955120396116</v>
       </c>
       <c r="H98" s="2">
-        <v>44574</v>
+        <v>44438</v>
       </c>
       <c r="I98" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J98" s="3">
-        <v>10</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="B99">
-        <v>803</v>
+        <v>667</v>
       </c>
       <c r="C99">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D99">
-        <v>0.3242969730496406</v>
+        <v>0.3247994653582573</v>
       </c>
       <c r="E99">
-        <v>0.2412179857492447</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F99">
-        <v>-126.8616136077046</v>
+        <v>163.4629026636238</v>
       </c>
       <c r="G99">
-        <v>-0.2561818154487643</v>
+        <v>0.330015286551208</v>
       </c>
       <c r="H99" s="2">
-        <v>44573</v>
+        <v>44437</v>
       </c>
       <c r="I99" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J99" s="3">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100">
-        <v>1570</v>
+        <v>1512</v>
       </c>
       <c r="B100">
-        <v>801</v>
+        <v>666</v>
       </c>
       <c r="C100">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D100">
-        <v>0.3155121879577636</v>
+        <v>0.3277163908481597</v>
       </c>
       <c r="E100">
-        <v>0.2412179857492447</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F100">
-        <v>-116.6418974673748</v>
+        <v>157.6590570706768</v>
       </c>
       <c r="G100">
-        <v>-0.2354717346718296</v>
+        <v>0.3181771374697402</v>
       </c>
       <c r="H100" s="2">
-        <v>44571</v>
+        <v>44436</v>
       </c>
       <c r="I100" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J100" s="3">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101">
-        <v>1307</v>
+        <v>1600</v>
       </c>
       <c r="B101">
-        <v>796</v>
+        <v>665</v>
       </c>
       <c r="C101">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D101">
-        <v>0.3788885083198547</v>
+        <v>0.3096153016984463</v>
       </c>
       <c r="E101">
-        <v>0.2412179857492447</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F101">
-        <v>-179.9353729997873</v>
+        <v>195.7967236667128</v>
       </c>
       <c r="G101">
-        <v>-0.3633536503418827</v>
+        <v>0.3952419393369717</v>
       </c>
       <c r="H101" s="2">
-        <v>44566</v>
+        <v>44435</v>
       </c>
       <c r="I101" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J101" s="3">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102">
-        <v>1293</v>
+        <v>1533</v>
       </c>
       <c r="B102">
-        <v>794</v>
+        <v>664</v>
       </c>
       <c r="C102">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="D102">
-        <v>0.3831938208937645</v>
+        <v>0.3230106714963913</v>
       </c>
       <c r="E102">
-        <v>0.2412179857492447</v>
+        <v>0.4319882539901417</v>
       </c>
       <c r="F102">
-        <v>-183.5747548418641</v>
+        <v>167.0626339629194</v>
       </c>
       <c r="G102">
-        <v>-0.3705065880586857</v>
+        <v>0.3373807496479817</v>
       </c>
       <c r="H102" s="2">
-        <v>44564</v>
+        <v>44434</v>
       </c>
       <c r="I102" s="2">
-        <v>44584</v>
+        <v>44516</v>
       </c>
       <c r="J102" s="3">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103">
-        <v>1314</v>
+        <v>1605</v>
       </c>
       <c r="B103">
-        <v>793</v>
+        <v>811</v>
       </c>
       <c r="C103">
         <v>814</v>
       </c>
       <c r="D103">
-        <v>0.3769305663108825</v>
+        <v>0.3087104038596153</v>
       </c>
       <c r="E103">
         <v>0.2412179857492447</v>
       </c>
       <c r="F103">
-        <v>-178.3263308579921</v>
+        <v>-108.3253310671448</v>
       </c>
       <c r="G103">
-        <v>-0.3600466311074003</v>
+        <v>-0.2186269632203989</v>
       </c>
       <c r="H103" s="2">
-        <v>44563</v>
+        <v>44581</v>
       </c>
       <c r="I103" s="2">
         <v>44584</v>
       </c>
       <c r="J103" s="3">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104">
-        <v>1334</v>
+        <v>1566</v>
       </c>
       <c r="B104">
-        <v>791</v>
+        <v>810</v>
       </c>
       <c r="C104">
         <v>814</v>
       </c>
       <c r="D104">
-        <v>0.3712979330122471</v>
+        <v>0.3163010089993477</v>
       </c>
       <c r="E104">
         <v>0.2412179857492447</v>
       </c>
       <c r="F104">
-        <v>-173.5266496488452</v>
+        <v>-117.5800144096612</v>
       </c>
       <c r="G104">
-        <v>-0.3503384632596696</v>
+        <v>-0.2373783867703622</v>
       </c>
       <c r="H104" s="2">
-        <v>44561</v>
+        <v>44580</v>
       </c>
       <c r="I104" s="2">
         <v>44584</v>
       </c>
       <c r="J104" s="3">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
-        <v>1208</v>
+        <v>1542</v>
       </c>
       <c r="B105">
-        <v>786</v>
+        <v>809</v>
       </c>
       <c r="C105">
         <v>814</v>
       </c>
       <c r="D105">
-        <v>0.4098454532921314</v>
+        <v>0.3212889700829982</v>
       </c>
       <c r="E105">
         <v>0.2412179857492447</v>
       </c>
       <c r="F105">
-        <v>-203.7019807918072</v>
+        <v>-123.469457842648</v>
       </c>
       <c r="G105">
-        <v>-0.4114415963099429</v>
+        <v>-0.2492179682143115</v>
       </c>
       <c r="H105" s="2">
-        <v>44556</v>
+        <v>44579</v>
       </c>
       <c r="I105" s="2">
         <v>44584</v>
       </c>
       <c r="J105" s="3">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106">
-        <v>1203</v>
+        <v>1305</v>
       </c>
       <c r="B106">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="C106">
         <v>814</v>
       </c>
       <c r="D106">
-        <v>0.4115521491467952</v>
+        <v>0.3796542691290378</v>
       </c>
       <c r="E106">
         <v>0.2412179857492447</v>
       </c>
       <c r="F106">
-        <v>-204.9119985672533</v>
+        <v>-180.65934981063</v>
       </c>
       <c r="G106">
-        <v>-0.4138823324107939</v>
+        <v>-0.364637762924091</v>
       </c>
       <c r="H106" s="2">
-        <v>44554</v>
+        <v>44559</v>
       </c>
       <c r="I106" s="2">
         <v>44584</v>
       </c>
       <c r="J106" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="B107">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="C107">
         <v>814</v>
       </c>
       <c r="D107">
-        <v>0.4018424190282821</v>
+        <v>0.4041257101893425</v>
       </c>
       <c r="E107">
         <v>0.2412179857492447</v>
       </c>
       <c r="F107">
-        <v>-198.0499262330531</v>
+        <v>-199.7248701635599</v>
       </c>
       <c r="G107">
-        <v>-0.3997199540741678</v>
+        <v>-0.4031115079606582</v>
       </c>
       <c r="H107" s="2">
-        <v>44552</v>
+        <v>44558</v>
       </c>
       <c r="I107" s="2">
         <v>44584</v>
       </c>
       <c r="J107" s="3">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108">
-        <v>1254</v>
+        <v>1218</v>
       </c>
       <c r="B108">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="C108">
         <v>814</v>
       </c>
       <c r="D108">
-        <v>0.3948664749860763</v>
+        <v>0.4067633771598338</v>
       </c>
       <c r="E108">
         <v>0.2412179857492447</v>
       </c>
       <c r="F108">
-        <v>-192.6752055029868</v>
+        <v>-201.6342867380976</v>
       </c>
       <c r="G108">
-        <v>-0.389115052733331</v>
+        <v>-0.4069820458431774</v>
       </c>
       <c r="H108" s="2">
-        <v>44551</v>
+        <v>44557</v>
       </c>
       <c r="I108" s="2">
         <v>44584</v>
       </c>
       <c r="J108" s="3">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
-        <v>1250</v>
+        <v>1208</v>
       </c>
       <c r="B109">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="C109">
         <v>814</v>
       </c>
       <c r="D109">
-        <v>0.3963889873027801</v>
+        <v>0.4098454532921314</v>
       </c>
       <c r="E109">
         <v>0.2412179857492447</v>
       </c>
       <c r="F109">
-        <v>-193.9637519419193</v>
+        <v>-203.7019807918072</v>
       </c>
       <c r="G109">
-        <v>-0.3914614344091469</v>
+        <v>-0.4114415963099429</v>
       </c>
       <c r="H109" s="2">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="I109" s="2">
         <v>44584</v>
       </c>
       <c r="J109" s="3">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="B110">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="C110">
         <v>814</v>
       </c>
       <c r="D110">
-        <v>0.4023559492230415</v>
+        <v>0.4050396471619606</v>
       </c>
       <c r="E110">
         <v>0.2412179857492447</v>
       </c>
       <c r="F110">
-        <v>-198.3608330362438</v>
+        <v>-200.3538919077515</v>
       </c>
       <c r="G110">
-        <v>-0.4004860964152708</v>
+        <v>-0.404458335278002</v>
       </c>
       <c r="H110" s="2">
-        <v>44546</v>
+        <v>44555</v>
       </c>
       <c r="I110" s="2">
         <v>44584</v>
       </c>
       <c r="J110" s="3">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111">
-        <v>1282</v>
+        <v>1203</v>
       </c>
       <c r="B111">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="C111">
         <v>814</v>
       </c>
       <c r="D111">
-        <v>0.3862849063277244</v>
+        <v>0.4115521491467952</v>
       </c>
       <c r="E111">
         <v>0.2412179857492447</v>
       </c>
       <c r="F111">
-        <v>-185.975792181611</v>
+        <v>-204.9119985672533</v>
       </c>
       <c r="G111">
-        <v>-0.3755438491179482</v>
+        <v>-0.4138823324107939</v>
       </c>
       <c r="H111" s="2">
-        <v>44545</v>
+        <v>44554</v>
       </c>
       <c r="I111" s="2">
         <v>44584</v>
       </c>
       <c r="J111" s="3">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112">
-        <v>1198</v>
+        <v>1149</v>
       </c>
       <c r="B112">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C112">
         <v>814</v>
       </c>
       <c r="D112">
-        <v>0.4134129875898361</v>
+        <v>0.4310706222057342</v>
       </c>
       <c r="E112">
         <v>0.2412179857492447</v>
       </c>
       <c r="F112">
-        <v>-206.2896122050285</v>
+        <v>-218.1406792885065</v>
       </c>
       <c r="G112">
-        <v>-0.4165205424349975</v>
+        <v>-0.4404211901173813</v>
       </c>
       <c r="H112" s="2">
-        <v>44543</v>
+        <v>44538</v>
       </c>
       <c r="I112" s="2">
         <v>44584</v>
       </c>
       <c r="J112" s="3">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="B113">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="C113">
         <v>814</v>
       </c>
       <c r="D113">
-        <v>0.4093769696056843</v>
+        <v>0.412136739462614</v>
       </c>
       <c r="E113">
         <v>0.2412179857492447</v>
       </c>
       <c r="F113">
-        <v>-203.4723704662919</v>
+        <v>-205.44434196347</v>
       </c>
       <c r="G113">
-        <v>-0.4107680605931786</v>
+        <v>-0.4147137038455505</v>
       </c>
       <c r="H113" s="2">
-        <v>44542</v>
+        <v>44535</v>
       </c>
       <c r="I113" s="2">
         <v>44584</v>
       </c>
       <c r="J113" s="3">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114">
-        <v>1115</v>
+        <v>1174</v>
       </c>
       <c r="B114">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="C114">
         <v>814</v>
       </c>
       <c r="D114">
-        <v>0.4441347062587738</v>
+        <v>0.4219224818348884</v>
       </c>
       <c r="E114">
         <v>0.2412179857492447</v>
       </c>
       <c r="F114">
-        <v>-226.2521433681249</v>
+        <v>-212.1470784045457</v>
       </c>
       <c r="G114">
-        <v>-0.4568810265219405</v>
+        <v>-0.4282883796563348</v>
       </c>
       <c r="H114" s="2">
-        <v>44539</v>
+        <v>44534</v>
       </c>
       <c r="I114" s="2">
         <v>44584</v>
       </c>
       <c r="J114" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115">
-        <v>1138</v>
+        <v>1097</v>
       </c>
       <c r="B115">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C115">
         <v>814</v>
       </c>
       <c r="D115">
-        <v>0.4351917512416839</v>
+        <v>0.4515861445367336</v>
       </c>
       <c r="E115">
         <v>0.2412179857492447</v>
       </c>
       <c r="F115">
-        <v>-220.7421451303958</v>
+        <v>-230.7738701898753</v>
       </c>
       <c r="G115">
-        <v>-0.4457202254845033</v>
+        <v>-0.4658428105744878</v>
       </c>
       <c r="H115" s="2">
-        <v>44537</v>
+        <v>44533</v>
       </c>
       <c r="I115" s="2">
         <v>44584</v>
       </c>
       <c r="J115" s="3">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116">
-        <v>1179</v>
+        <v>1080</v>
       </c>
       <c r="B116">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C116">
         <v>814</v>
       </c>
       <c r="D116">
-        <v>0.4200636421442032</v>
+        <v>0.458753312498331</v>
       </c>
       <c r="E116">
         <v>0.2412179857492447</v>
       </c>
       <c r="F116">
-        <v>-210.859028889656</v>
+        <v>-234.9381528890132</v>
       </c>
       <c r="G116">
-        <v>-0.42575847669664</v>
+        <v>-0.4741880239826666</v>
       </c>
       <c r="H116" s="2">
-        <v>44536</v>
+        <v>44532</v>
       </c>
       <c r="I116" s="2">
         <v>44584</v>
       </c>
       <c r="J116" s="3">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4222,802 +4222,34 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120">
-        <v>1208</v>
+        <v>1084</v>
       </c>
       <c r="B120">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="C120">
         <v>814</v>
       </c>
       <c r="D120">
-        <v>0.4099385295212268</v>
+        <v>0.4568333766162395</v>
       </c>
       <c r="E120">
         <v>0.2412179857492447</v>
       </c>
       <c r="F120">
-        <v>-203.8144168765544</v>
+        <v>-233.7270836998224</v>
       </c>
       <c r="G120">
-        <v>-0.4115752280446371</v>
+        <v>-0.47197819140111</v>
       </c>
       <c r="H120" s="2">
-        <v>44528</v>
+        <v>44516</v>
       </c>
       <c r="I120" s="2">
         <v>44584</v>
       </c>
       <c r="J120" s="3">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121">
-        <v>1093</v>
-      </c>
-      <c r="B121">
-        <v>756</v>
-      </c>
-      <c r="C121">
-        <v>814</v>
-      </c>
-      <c r="D121">
-        <v>0.4529004584550857</v>
-      </c>
-      <c r="E121">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F121">
-        <v>-231.3689426674842</v>
-      </c>
-      <c r="G121">
-        <v>-0.4673929309498229</v>
-      </c>
-      <c r="H121" s="2">
-        <v>44526</v>
-      </c>
-      <c r="I121" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J121" s="3">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="A122">
-        <v>1140</v>
-      </c>
-      <c r="B122">
-        <v>754</v>
-      </c>
-      <c r="C122">
-        <v>814</v>
-      </c>
-      <c r="D122">
-        <v>0.4343789750039577</v>
-      </c>
-      <c r="E122">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F122">
-        <v>-220.2035277503729</v>
-      </c>
-      <c r="G122">
-        <v>-0.444683100172961</v>
-      </c>
-      <c r="H122" s="2">
-        <v>44524</v>
-      </c>
-      <c r="I122" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J122" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="A123">
-        <v>1121</v>
-      </c>
-      <c r="B123">
-        <v>751</v>
-      </c>
-      <c r="C123">
-        <v>814</v>
-      </c>
-      <c r="D123">
-        <v>0.4416582222580909</v>
-      </c>
-      <c r="E123">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F123">
-        <v>-224.6935051264166</v>
-      </c>
-      <c r="G123">
-        <v>-0.4538356276580658</v>
-      </c>
-      <c r="H123" s="2">
-        <v>44521</v>
-      </c>
-      <c r="I123" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J123" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="A124">
-        <v>1152</v>
-      </c>
-      <c r="B124">
-        <v>750</v>
-      </c>
-      <c r="C124">
-        <v>814</v>
-      </c>
-      <c r="D124">
-        <v>0.4299044844508171</v>
-      </c>
-      <c r="E124">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F124">
-        <v>-217.3668465042114</v>
-      </c>
-      <c r="G124">
-        <v>-0.4389033041667629</v>
-      </c>
-      <c r="H124" s="2">
-        <v>44520</v>
-      </c>
-      <c r="I124" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J124" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="A125">
-        <v>1154</v>
-      </c>
-      <c r="B125">
-        <v>748</v>
-      </c>
-      <c r="C125">
-        <v>814</v>
-      </c>
-      <c r="D125">
-        <v>0.4292357973754405</v>
-      </c>
-      <c r="E125">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F125">
-        <v>-216.97255461663</v>
-      </c>
-      <c r="G125">
-        <v>-0.4380291969491583</v>
-      </c>
-      <c r="H125" s="2">
-        <v>44518</v>
-      </c>
-      <c r="I125" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J125" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="A126">
-        <v>1048</v>
-      </c>
-      <c r="B126">
-        <v>742</v>
-      </c>
-      <c r="C126">
-        <v>814</v>
-      </c>
-      <c r="D126">
-        <v>0.4723718862533569</v>
-      </c>
-      <c r="E126">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F126">
-        <v>-242.2492877283096</v>
-      </c>
-      <c r="G126">
-        <v>-0.4893472859647127</v>
-      </c>
-      <c r="H126" s="2">
-        <v>44512</v>
-      </c>
-      <c r="I126" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J126" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127">
-        <v>1029</v>
-      </c>
-      <c r="B127">
-        <v>739</v>
-      </c>
-      <c r="C127">
-        <v>814</v>
-      </c>
-      <c r="D127">
-        <v>0.4812788040637969</v>
-      </c>
-      <c r="E127">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F127">
-        <v>-247.0225820456743</v>
-      </c>
-      <c r="G127">
-        <v>-0.4987978200733945</v>
-      </c>
-      <c r="H127" s="2">
-        <v>44509</v>
-      </c>
-      <c r="I127" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J127" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="A128">
-        <v>1073</v>
-      </c>
-      <c r="B128">
-        <v>738</v>
-      </c>
-      <c r="C128">
-        <v>814</v>
-      </c>
-      <c r="D128">
-        <v>0.4617202366292476</v>
-      </c>
-      <c r="E128">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F128">
-        <v>-236.5989151942431</v>
-      </c>
-      <c r="G128">
-        <v>-0.4775667891226998</v>
-      </c>
-      <c r="H128" s="2">
-        <v>44508</v>
-      </c>
-      <c r="I128" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J128" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
-      <c r="A129">
-        <v>1095</v>
-      </c>
-      <c r="B129">
-        <v>737</v>
-      </c>
-      <c r="C129">
-        <v>814</v>
-      </c>
-      <c r="D129">
-        <v>0.4522517887353897</v>
-      </c>
-      <c r="E129">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F129">
-        <v>-231.0820142698288</v>
-      </c>
-      <c r="G129">
-        <v>-0.4666290067668917</v>
-      </c>
-      <c r="H129" s="2">
-        <v>44507</v>
-      </c>
-      <c r="I129" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J129" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
-      <c r="A130">
-        <v>1075</v>
-      </c>
-      <c r="B130">
-        <v>734</v>
-      </c>
-      <c r="C130">
-        <v>814</v>
-      </c>
-      <c r="D130">
-        <v>0.4607953512668609</v>
-      </c>
-      <c r="E130">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F130">
-        <v>-236.0456679314374</v>
-      </c>
-      <c r="G130">
-        <v>-0.4765181873339953</v>
-      </c>
-      <c r="H130" s="2">
-        <v>44504</v>
-      </c>
-      <c r="I130" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J130" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
-      <c r="A131">
-        <v>1078</v>
-      </c>
-      <c r="B131">
-        <v>733</v>
-      </c>
-      <c r="C131">
-        <v>814</v>
-      </c>
-      <c r="D131">
-        <v>0.4594269815385341</v>
-      </c>
-      <c r="E131">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F131">
-        <v>-235.229297460854</v>
-      </c>
-      <c r="G131">
-        <v>-0.4749590349668814</v>
-      </c>
-      <c r="H131" s="2">
-        <v>44503</v>
-      </c>
-      <c r="I131" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J131" s="3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
-      <c r="A132">
-        <v>1145</v>
-      </c>
-      <c r="B132">
-        <v>732</v>
-      </c>
-      <c r="C132">
-        <v>814</v>
-      </c>
-      <c r="D132">
-        <v>0.4323749721944332</v>
-      </c>
-      <c r="E132">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F132">
-        <v>-218.8747494797408</v>
-      </c>
-      <c r="G132">
-        <v>-0.4421092772206707</v>
-      </c>
-      <c r="H132" s="2">
-        <v>44502</v>
-      </c>
-      <c r="I132" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J132" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
-      <c r="A133">
-        <v>1120</v>
-      </c>
-      <c r="B133">
-        <v>729</v>
-      </c>
-      <c r="C133">
-        <v>814</v>
-      </c>
-      <c r="D133">
-        <v>0.4423309068381786</v>
-      </c>
-      <c r="E133">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F133">
-        <v>-225.246471619606</v>
-      </c>
-      <c r="G133">
-        <v>-0.4546662192938479</v>
-      </c>
-      <c r="H133" s="2">
-        <v>44499</v>
-      </c>
-      <c r="I133" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J133" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
-      <c r="A134">
-        <v>1154</v>
-      </c>
-      <c r="B134">
-        <v>728</v>
-      </c>
-      <c r="C134">
-        <v>814</v>
-      </c>
-      <c r="D134">
-        <v>0.4290295678973197</v>
-      </c>
-      <c r="E134">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F134">
-        <v>-216.7345657988786</v>
-      </c>
-      <c r="G134">
-        <v>-0.4377590641795212</v>
-      </c>
-      <c r="H134" s="2">
-        <v>44498</v>
-      </c>
-      <c r="I134" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J134" s="3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="A135">
-        <v>1172</v>
-      </c>
-      <c r="B135">
-        <v>725</v>
-      </c>
-      <c r="C135">
-        <v>814</v>
-      </c>
-      <c r="D135">
-        <v>0.4224580281376838</v>
-      </c>
-      <c r="E135">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F135">
-        <v>-212.4133296792506</v>
-      </c>
-      <c r="G135">
-        <v>-0.4290131334168207</v>
-      </c>
-      <c r="H135" s="2">
-        <v>44495</v>
-      </c>
-      <c r="I135" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J135" s="3">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
-      <c r="A136">
-        <v>1187</v>
-      </c>
-      <c r="B136">
-        <v>723</v>
-      </c>
-      <c r="C136">
-        <v>814</v>
-      </c>
-      <c r="D136">
-        <v>0.4171297123432159</v>
-      </c>
-      <c r="E136">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F136">
-        <v>-208.8072194670438</v>
-      </c>
-      <c r="G136">
-        <v>-0.4217194829056684</v>
-      </c>
-      <c r="H136" s="2">
-        <v>44493</v>
-      </c>
-      <c r="I136" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J136" s="3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
-      <c r="A137">
-        <v>1189</v>
-      </c>
-      <c r="B137">
-        <v>720</v>
-      </c>
-      <c r="C137">
-        <v>814</v>
-      </c>
-      <c r="D137">
-        <v>0.4165531468689441</v>
-      </c>
-      <c r="E137">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F137">
-        <v>-208.4735065713226</v>
-      </c>
-      <c r="G137">
-        <v>-0.4209190650403689</v>
-      </c>
-      <c r="H137" s="2">
-        <v>44490</v>
-      </c>
-      <c r="I137" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J137" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
-      <c r="A138">
-        <v>1276</v>
-      </c>
-      <c r="B138">
-        <v>719</v>
-      </c>
-      <c r="C138">
-        <v>814</v>
-      </c>
-      <c r="D138">
-        <v>0.3880856927037238</v>
-      </c>
-      <c r="E138">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F138">
-        <v>-187.4031940739154</v>
-      </c>
-      <c r="G138">
-        <v>-0.3784414363005192</v>
-      </c>
-      <c r="H138" s="2">
-        <v>44489</v>
-      </c>
-      <c r="I138" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J138" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
-      <c r="A139">
-        <v>1286</v>
-      </c>
-      <c r="B139">
-        <v>717</v>
-      </c>
-      <c r="C139">
-        <v>814</v>
-      </c>
-      <c r="D139">
-        <v>0.3850847002863884</v>
-      </c>
-      <c r="E139">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F139">
-        <v>-185.0125948947667</v>
-      </c>
-      <c r="G139">
-        <v>-0.3735975862716687</v>
-      </c>
-      <c r="H139" s="2">
-        <v>44487</v>
-      </c>
-      <c r="I139" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J139" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
-      <c r="A140">
-        <v>1279</v>
-      </c>
-      <c r="B140">
-        <v>715</v>
-      </c>
-      <c r="C140">
-        <v>814</v>
-      </c>
-      <c r="D140">
-        <v>0.387224827080965</v>
-      </c>
-      <c r="E140">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F140">
-        <v>-186.7427500632703</v>
-      </c>
-      <c r="G140">
-        <v>-0.3770596075473014</v>
-      </c>
-      <c r="H140" s="2">
-        <v>44485</v>
-      </c>
-      <c r="I140" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J140" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
-      <c r="A141">
-        <v>1305</v>
-      </c>
-      <c r="B141">
-        <v>714</v>
-      </c>
-      <c r="C141">
-        <v>814</v>
-      </c>
-      <c r="D141">
-        <v>0.3794610762894153</v>
-      </c>
-      <c r="E141">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F141">
-        <v>-180.4072331549227</v>
-      </c>
-      <c r="G141">
-        <v>-0.3643142845953784</v>
-      </c>
-      <c r="H141" s="2">
-        <v>44484</v>
-      </c>
-      <c r="I141" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J141" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
-      <c r="A142">
-        <v>1253</v>
-      </c>
-      <c r="B142">
-        <v>675</v>
-      </c>
-      <c r="C142">
-        <v>814</v>
-      </c>
-      <c r="D142">
-        <v>0.3954230231046676</v>
-      </c>
-      <c r="E142">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F142">
-        <v>-193.2189118063449</v>
-      </c>
-      <c r="G142">
-        <v>-0.3899748581776564</v>
-      </c>
-      <c r="H142" s="2">
-        <v>44445</v>
-      </c>
-      <c r="I142" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J142" s="3">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10">
-      <c r="A143">
-        <v>1256</v>
-      </c>
-      <c r="B143">
-        <v>673</v>
-      </c>
-      <c r="C143">
-        <v>814</v>
-      </c>
-      <c r="D143">
-        <v>0.3942048282921314</v>
-      </c>
-      <c r="E143">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F143">
-        <v>-192.1514742338657</v>
-      </c>
-      <c r="G143">
-        <v>-0.3880897228115976</v>
-      </c>
-      <c r="H143" s="2">
-        <v>44443</v>
-      </c>
-      <c r="I143" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J143" s="3">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10">
-      <c r="A144">
-        <v>1293</v>
-      </c>
-      <c r="B144">
-        <v>671</v>
-      </c>
-      <c r="C144">
-        <v>814</v>
-      </c>
-      <c r="D144">
-        <v>0.3830646776258945</v>
-      </c>
-      <c r="E144">
-        <v>0.2412179857492447</v>
-      </c>
-      <c r="F144">
-        <v>-183.4077725965082</v>
-      </c>
-      <c r="G144">
-        <v>-0.3702943658386039</v>
-      </c>
-      <c r="H144" s="2">
-        <v>44441</v>
-      </c>
-      <c r="I144" s="2">
-        <v>44584</v>
-      </c>
-      <c r="J144" s="3">
-        <v>143</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
